--- a/output/countries_summary.xlsx
+++ b/output/countries_summary.xlsx
@@ -412,18 +412,14 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Acceleration Needed</t>
-        </is>
-      </c>
-      <c r="C2" t="inlineStr">
-        <is>
-          <t>41128.771000000001</t>
-        </is>
-      </c>
-      <c r="D2" t="inlineStr">
-        <is>
-          <t>1446.6990000000001</t>
-        </is>
+          <t>off-track</t>
+        </is>
+      </c>
+      <c r="C2">
+        <v>41128.771</v>
+      </c>
+      <c r="D2">
+        <v>1446.699</v>
       </c>
       <c r="E2" t="inlineStr">
         <is>
@@ -451,18 +447,14 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Acceleration Needed</t>
-        </is>
-      </c>
-      <c r="C3" t="inlineStr">
-        <is>
-          <t>35588.987000000001</t>
-        </is>
-      </c>
-      <c r="D3" t="inlineStr">
-        <is>
-          <t>1359.723</t>
-        </is>
+          <t>off-track</t>
+        </is>
+      </c>
+      <c r="C3">
+        <v>35588.987</v>
+      </c>
+      <c r="D3">
+        <v>1359.723</v>
       </c>
       <c r="E3" t="inlineStr">
         <is>
@@ -478,18 +470,14 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Achieved</t>
-        </is>
-      </c>
-      <c r="C4" t="inlineStr">
-        <is>
-          <t>15.856999999999999</t>
-        </is>
-      </c>
-      <c r="D4" t="inlineStr">
-        <is>
-          <t>0.15</t>
-        </is>
+          <t>on-track</t>
+        </is>
+      </c>
+      <c r="C4">
+        <v>15.857</v>
+      </c>
+      <c r="D4">
+        <v>0.15</v>
       </c>
       <c r="E4" t="inlineStr">
         <is>
@@ -511,18 +499,14 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>Achieved</t>
-        </is>
-      </c>
-      <c r="C5" t="inlineStr">
-        <is>
-          <t>2842.3209999999999</t>
-        </is>
-      </c>
-      <c r="D5" t="inlineStr">
-        <is>
-          <t>28.795000000000002</t>
-        </is>
+          <t>on-track</t>
+        </is>
+      </c>
+      <c r="C5">
+        <v>2842.321</v>
+      </c>
+      <c r="D5">
+        <v>28.795</v>
       </c>
       <c r="E5" t="inlineStr">
         <is>
@@ -550,18 +534,14 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>Achieved</t>
-        </is>
-      </c>
-      <c r="C6" t="inlineStr">
-        <is>
-          <t>79.823999999999998</t>
-        </is>
-      </c>
-      <c r="D6" t="inlineStr">
-        <is>
-          <t>0.57499999999999996</t>
-        </is>
+          <t>on-track</t>
+        </is>
+      </c>
+      <c r="C6">
+        <v>79.824</v>
+      </c>
+      <c r="D6">
+        <v>0.575</v>
       </c>
       <c r="E6" t="inlineStr">
         <is>
@@ -577,18 +557,14 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>Achieved</t>
-        </is>
-      </c>
-      <c r="C7" t="inlineStr">
-        <is>
-          <t>9441.1290000000008</t>
-        </is>
-      </c>
-      <c r="D7" t="inlineStr">
-        <is>
-          <t>93.343000000000004</t>
-        </is>
+          <t>on-track</t>
+        </is>
+      </c>
+      <c r="C7">
+        <v>9441.129000000001</v>
+      </c>
+      <c r="D7">
+        <v>93.343</v>
       </c>
       <c r="E7" t="inlineStr">
         <is>
@@ -610,18 +586,14 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>Achieved</t>
-        </is>
-      </c>
-      <c r="C8" t="inlineStr">
-        <is>
-          <t>45510.317999999999</t>
-        </is>
-      </c>
-      <c r="D8" t="inlineStr">
-        <is>
-          <t>627.74099999999999</t>
-        </is>
+          <t>on-track</t>
+        </is>
+      </c>
+      <c r="C8">
+        <v>45510.318</v>
+      </c>
+      <c r="D8">
+        <v>627.741</v>
       </c>
       <c r="E8" t="inlineStr">
         <is>
@@ -649,18 +621,14 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>Achieved</t>
-        </is>
-      </c>
-      <c r="C9" t="inlineStr">
-        <is>
-          <t>2780.4690000000001</t>
-        </is>
-      </c>
-      <c r="D9" t="inlineStr">
-        <is>
-          <t>32.555999999999997</t>
-        </is>
+          <t>on-track</t>
+        </is>
+      </c>
+      <c r="C9">
+        <v>2780.469</v>
+      </c>
+      <c r="D9">
+        <v>32.556</v>
       </c>
       <c r="E9" t="inlineStr">
         <is>
@@ -676,18 +644,14 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>Achieved</t>
-        </is>
-      </c>
-      <c r="C10" t="inlineStr">
-        <is>
-          <t>93.763000000000005</t>
-        </is>
-      </c>
-      <c r="D10" t="inlineStr">
-        <is>
-          <t>1.1240000000000001</t>
-        </is>
+          <t>on-track</t>
+        </is>
+      </c>
+      <c r="C10">
+        <v>93.76300000000001</v>
+      </c>
+      <c r="D10">
+        <v>1.124</v>
       </c>
       <c r="E10" t="inlineStr">
         <is>
@@ -709,18 +673,14 @@
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>Achieved</t>
-        </is>
-      </c>
-      <c r="C11" t="inlineStr">
-        <is>
-          <t>26177.413</t>
-        </is>
-      </c>
-      <c r="D11" t="inlineStr">
-        <is>
-          <t>300.24599999999998</t>
-        </is>
+          <t>on-track</t>
+        </is>
+      </c>
+      <c r="C11">
+        <v>26177.413</v>
+      </c>
+      <c r="D11">
+        <v>300.246</v>
       </c>
       <c r="E11" t="inlineStr">
         <is>
@@ -742,18 +702,14 @@
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>Achieved</t>
-        </is>
-      </c>
-      <c r="C12" t="inlineStr">
-        <is>
-          <t>8939.6170000000002</t>
-        </is>
-      </c>
-      <c r="D12" t="inlineStr">
-        <is>
-          <t>84.394000000000005</t>
-        </is>
+          <t>on-track</t>
+        </is>
+      </c>
+      <c r="C12">
+        <v>8939.617</v>
+      </c>
+      <c r="D12">
+        <v>84.39400000000001</v>
       </c>
       <c r="E12" t="inlineStr">
         <is>
@@ -775,18 +731,14 @@
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>Achieved</t>
-        </is>
-      </c>
-      <c r="C13" t="inlineStr">
-        <is>
-          <t>10358.074000000001</t>
-        </is>
-      </c>
-      <c r="D13" t="inlineStr">
-        <is>
-          <t>123.673</t>
-        </is>
+          <t>on-track</t>
+        </is>
+      </c>
+      <c r="C13">
+        <v>10358.074</v>
+      </c>
+      <c r="D13">
+        <v>123.673</v>
       </c>
       <c r="E13" t="inlineStr">
         <is>
@@ -808,18 +760,14 @@
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>Acceleration Needed</t>
-        </is>
-      </c>
-      <c r="C14" t="inlineStr">
-        <is>
-          <t>13352.864</t>
-        </is>
-      </c>
-      <c r="D14" t="inlineStr">
-        <is>
-          <t>481.71499999999997</t>
-        </is>
+          <t>off-track</t>
+        </is>
+      </c>
+      <c r="C14">
+        <v>13352.864</v>
+      </c>
+      <c r="D14">
+        <v>481.715</v>
       </c>
       <c r="E14" t="inlineStr">
         <is>
@@ -847,18 +795,14 @@
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>Achieved</t>
-        </is>
-      </c>
-      <c r="C15" t="inlineStr">
-        <is>
-          <t>11655.93</t>
-        </is>
-      </c>
-      <c r="D15" t="inlineStr">
-        <is>
-          <t>117.003</t>
-        </is>
+          <t>on-track</t>
+        </is>
+      </c>
+      <c r="C15">
+        <v>11655.93</v>
+      </c>
+      <c r="D15">
+        <v>117.003</v>
       </c>
       <c r="E15" t="inlineStr">
         <is>
@@ -874,18 +818,14 @@
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>Acceleration Needed</t>
-        </is>
-      </c>
-      <c r="C16" t="inlineStr">
-        <is>
-          <t>2630.2959999999998</t>
-        </is>
-      </c>
-      <c r="D16" t="inlineStr">
-        <is>
-          <t>60.554000000000002</t>
-        </is>
+          <t>off-track</t>
+        </is>
+      </c>
+      <c r="C16">
+        <v>2630.296</v>
+      </c>
+      <c r="D16">
+        <v>60.554</v>
       </c>
       <c r="E16" t="inlineStr">
         <is>
@@ -907,18 +847,14 @@
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>Acceleration Needed</t>
-        </is>
-      </c>
-      <c r="C17" t="inlineStr">
-        <is>
-          <t>22673.761999999999</t>
-        </is>
-      </c>
-      <c r="D17" t="inlineStr">
-        <is>
-          <t>793.03099999999995</t>
-        </is>
+          <t>off-track</t>
+        </is>
+      </c>
+      <c r="C17">
+        <v>22673.762</v>
+      </c>
+      <c r="D17">
+        <v>793.0309999999999</v>
       </c>
       <c r="E17" t="inlineStr">
         <is>
@@ -946,18 +882,14 @@
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>On Track</t>
-        </is>
-      </c>
-      <c r="C18" t="inlineStr">
-        <is>
-          <t>171186.372</t>
-        </is>
-      </c>
-      <c r="D18" t="inlineStr">
-        <is>
-          <t>2994.9659999999999</t>
-        </is>
+          <t>on-track</t>
+        </is>
+      </c>
+      <c r="C18">
+        <v>171186.372</v>
+      </c>
+      <c r="D18">
+        <v>2994.966</v>
       </c>
       <c r="E18" t="inlineStr">
         <is>
@@ -985,18 +917,14 @@
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>Achieved</t>
-        </is>
-      </c>
-      <c r="C19" t="inlineStr">
-        <is>
-          <t>6781.9530000000004</t>
-        </is>
-      </c>
-      <c r="D19" t="inlineStr">
-        <is>
-          <t>56.662999999999997</t>
-        </is>
+          <t>on-track</t>
+        </is>
+      </c>
+      <c r="C19">
+        <v>6781.953</v>
+      </c>
+      <c r="D19">
+        <v>56.663</v>
       </c>
       <c r="E19" t="inlineStr">
         <is>
@@ -1018,18 +946,14 @@
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>Achieved</t>
-        </is>
-      </c>
-      <c r="C20" t="inlineStr">
-        <is>
-          <t>1472.2329999999999</t>
-        </is>
-      </c>
-      <c r="D20" t="inlineStr">
-        <is>
-          <t>16.861000000000001</t>
-        </is>
+          <t>on-track</t>
+        </is>
+      </c>
+      <c r="C20">
+        <v>1472.233</v>
+      </c>
+      <c r="D20">
+        <v>16.861</v>
       </c>
       <c r="E20" t="inlineStr">
         <is>
@@ -1051,18 +975,14 @@
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>Achieved</t>
-        </is>
-      </c>
-      <c r="C21" t="inlineStr">
-        <is>
-          <t>409.98399999999998</t>
-        </is>
-      </c>
-      <c r="D21" t="inlineStr">
-        <is>
-          <t>4.6589999999999998</t>
-        </is>
+          <t>on-track</t>
+        </is>
+      </c>
+      <c r="C21">
+        <v>409.984</v>
+      </c>
+      <c r="D21">
+        <v>4.659</v>
       </c>
       <c r="E21" t="inlineStr">
         <is>
@@ -1084,18 +1004,14 @@
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>Achieved</t>
-        </is>
-      </c>
-      <c r="C22" t="inlineStr">
-        <is>
-          <t>3233.5259999999998</t>
-        </is>
-      </c>
-      <c r="D22" t="inlineStr">
-        <is>
-          <t>26.763999999999999</t>
-        </is>
+          <t>on-track</t>
+        </is>
+      </c>
+      <c r="C22">
+        <v>3233.526</v>
+      </c>
+      <c r="D22">
+        <v>26.764</v>
       </c>
       <c r="E22" t="inlineStr">
         <is>
@@ -1117,18 +1033,14 @@
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>Achieved</t>
-        </is>
-      </c>
-      <c r="C23" t="inlineStr">
-        <is>
-          <t>9534.9539999999997</t>
-        </is>
-      </c>
-      <c r="D23" t="inlineStr">
-        <is>
-          <t>87.251999999999995</t>
-        </is>
+          <t>on-track</t>
+        </is>
+      </c>
+      <c r="C23">
+        <v>9534.954</v>
+      </c>
+      <c r="D23">
+        <v>87.252</v>
       </c>
       <c r="E23" t="inlineStr">
         <is>
@@ -1156,18 +1068,14 @@
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>Achieved</t>
-        </is>
-      </c>
-      <c r="C24" t="inlineStr">
-        <is>
-          <t>405.27199999999999</t>
-        </is>
-      </c>
-      <c r="D24" t="inlineStr">
-        <is>
-          <t>7.1929999999999996</t>
-        </is>
+          <t>on-track</t>
+        </is>
+      </c>
+      <c r="C24">
+        <v>405.272</v>
+      </c>
+      <c r="D24">
+        <v>7.193</v>
       </c>
       <c r="E24" t="inlineStr">
         <is>
@@ -1189,18 +1097,14 @@
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>Achieved</t>
-        </is>
-      </c>
-      <c r="C25" t="inlineStr">
-        <is>
-          <t>12224.11</t>
-        </is>
-      </c>
-      <c r="D25" t="inlineStr">
-        <is>
-          <t>264.07</t>
-        </is>
+          <t>on-track</t>
+        </is>
+      </c>
+      <c r="C25">
+        <v>12224.11</v>
+      </c>
+      <c r="D25">
+        <v>264.07</v>
       </c>
       <c r="E25" t="inlineStr">
         <is>
@@ -1222,18 +1126,14 @@
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>Achieved</t>
-        </is>
-      </c>
-      <c r="C26" t="inlineStr">
-        <is>
-          <t>215313.49799999999</t>
-        </is>
-      </c>
-      <c r="D26" t="inlineStr">
-        <is>
-          <t>2723.2660000000001</t>
-        </is>
+          <t>on-track</t>
+        </is>
+      </c>
+      <c r="C26">
+        <v>215313.498</v>
+      </c>
+      <c r="D26">
+        <v>2723.266</v>
       </c>
       <c r="E26" t="inlineStr">
         <is>
@@ -1261,18 +1161,14 @@
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>Achieved</t>
-        </is>
-      </c>
-      <c r="C27" t="inlineStr">
-        <is>
-          <t>281.63499999999999</t>
-        </is>
-      </c>
-      <c r="D27" t="inlineStr">
-        <is>
-          <t>3.0369999999999999</t>
-        </is>
+          <t>on-track</t>
+        </is>
+      </c>
+      <c r="C27">
+        <v>281.635</v>
+      </c>
+      <c r="D27">
+        <v>3.037</v>
       </c>
       <c r="E27" t="inlineStr">
         <is>
@@ -1294,18 +1190,14 @@
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>Achieved</t>
-        </is>
-      </c>
-      <c r="C28" t="inlineStr">
-        <is>
-          <t>449.00200000000001</t>
-        </is>
-      </c>
-      <c r="D28" t="inlineStr">
-        <is>
-          <t>6.0579999999999998</t>
-        </is>
+          <t>on-track</t>
+        </is>
+      </c>
+      <c r="C28">
+        <v>449.002</v>
+      </c>
+      <c r="D28">
+        <v>6.058</v>
       </c>
       <c r="E28" t="inlineStr">
         <is>
@@ -1327,18 +1219,14 @@
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>Achieved</t>
-        </is>
-      </c>
-      <c r="C29" t="inlineStr">
-        <is>
-          <t>782.45500000000004</t>
-        </is>
-      </c>
-      <c r="D29" t="inlineStr">
-        <is>
-          <t>9.6479999999999997</t>
-        </is>
+          <t>on-track</t>
+        </is>
+      </c>
+      <c r="C29">
+        <v>782.455</v>
+      </c>
+      <c r="D29">
+        <v>9.648</v>
       </c>
       <c r="E29" t="inlineStr">
         <is>
@@ -1360,18 +1248,14 @@
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>Acceleration Needed</t>
-        </is>
-      </c>
-      <c r="C30" t="inlineStr">
-        <is>
-          <t>12889.575999999999</t>
-        </is>
-      </c>
-      <c r="D30" t="inlineStr">
-        <is>
-          <t>439.64800000000002</t>
-        </is>
+          <t>off-track</t>
+        </is>
+      </c>
+      <c r="C30">
+        <v>12889.576</v>
+      </c>
+      <c r="D30">
+        <v>439.648</v>
       </c>
       <c r="E30" t="inlineStr">
         <is>
@@ -1393,18 +1277,14 @@
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>Acceleration Needed</t>
-        </is>
-      </c>
-      <c r="C31" t="inlineStr">
-        <is>
-          <t>27914.536</t>
-        </is>
-      </c>
-      <c r="D31" t="inlineStr">
-        <is>
-          <t>959.096</t>
-        </is>
+          <t>off-track</t>
+        </is>
+      </c>
+      <c r="C31">
+        <v>27914.536</v>
+      </c>
+      <c r="D31">
+        <v>959.096</v>
       </c>
       <c r="E31" t="inlineStr">
         <is>
@@ -1432,18 +1312,14 @@
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t>Achieved</t>
-        </is>
-      </c>
-      <c r="C32" t="inlineStr">
-        <is>
-          <t>38454.326999999997</t>
-        </is>
-      </c>
-      <c r="D32" t="inlineStr">
-        <is>
-          <t>376.18799999999999</t>
-        </is>
+          <t>on-track</t>
+        </is>
+      </c>
+      <c r="C32">
+        <v>38454.327</v>
+      </c>
+      <c r="D32">
+        <v>376.188</v>
       </c>
       <c r="E32" t="inlineStr">
         <is>
@@ -1465,18 +1341,14 @@
       </c>
       <c r="B33" t="inlineStr">
         <is>
-          <t>Achieved</t>
-        </is>
-      </c>
-      <c r="C33" t="inlineStr">
-        <is>
-          <t>8740.4719999999998</t>
-        </is>
-      </c>
-      <c r="D33" t="inlineStr">
-        <is>
-          <t>86.478999999999999</t>
-        </is>
+          <t>on-track</t>
+        </is>
+      </c>
+      <c r="C33">
+        <v>8740.472</v>
+      </c>
+      <c r="D33">
+        <v>86.479</v>
       </c>
       <c r="E33" t="inlineStr">
         <is>
@@ -1492,18 +1364,14 @@
       </c>
       <c r="B34" t="inlineStr">
         <is>
-          <t>Achieved</t>
-        </is>
-      </c>
-      <c r="C34" t="inlineStr">
-        <is>
-          <t>19603.733</t>
-        </is>
-      </c>
-      <c r="D34" t="inlineStr">
-        <is>
-          <t>230.82400000000001</t>
-        </is>
+          <t>on-track</t>
+        </is>
+      </c>
+      <c r="C34">
+        <v>19603.733</v>
+      </c>
+      <c r="D34">
+        <v>230.824</v>
       </c>
       <c r="E34" t="inlineStr">
         <is>
@@ -1525,18 +1393,14 @@
       </c>
       <c r="B35" t="inlineStr">
         <is>
-          <t>Achieved</t>
-        </is>
-      </c>
-      <c r="C35" t="inlineStr">
-        <is>
-          <t>1425887.3370000001</t>
-        </is>
-      </c>
-      <c r="D35" t="inlineStr">
-        <is>
-          <t>10757.794</t>
-        </is>
+          <t>on-track</t>
+        </is>
+      </c>
+      <c r="C35">
+        <v>1425887.337</v>
+      </c>
+      <c r="D35">
+        <v>10757.794</v>
       </c>
       <c r="E35" t="inlineStr">
         <is>
@@ -1558,18 +1422,14 @@
       </c>
       <c r="B36" t="inlineStr">
         <is>
-          <t>Acceleration Needed</t>
-        </is>
-      </c>
-      <c r="C36" t="inlineStr">
-        <is>
-          <t>5579.1440000000002</t>
-        </is>
-      </c>
-      <c r="D36" t="inlineStr">
-        <is>
-          <t>236.643</t>
-        </is>
+          <t>off-track</t>
+        </is>
+      </c>
+      <c r="C36">
+        <v>5579.144</v>
+      </c>
+      <c r="D36">
+        <v>236.643</v>
       </c>
       <c r="E36" t="inlineStr">
         <is>
@@ -1597,18 +1457,14 @@
       </c>
       <c r="B37" t="inlineStr">
         <is>
-          <t>Acceleration Needed</t>
-        </is>
-      </c>
-      <c r="C37" t="inlineStr">
-        <is>
-          <t>17723.314999999999</t>
-        </is>
-      </c>
-      <c r="D37" t="inlineStr">
-        <is>
-          <t>765.64800000000002</t>
-        </is>
+          <t>off-track</t>
+        </is>
+      </c>
+      <c r="C37">
+        <v>17723.315</v>
+      </c>
+      <c r="D37">
+        <v>765.648</v>
       </c>
       <c r="E37" t="inlineStr">
         <is>
@@ -1630,18 +1486,14 @@
       </c>
       <c r="B38" t="inlineStr">
         <is>
-          <t>Acceleration Needed</t>
-        </is>
-      </c>
-      <c r="C38" t="inlineStr">
-        <is>
-          <t>836.774</t>
-        </is>
-      </c>
-      <c r="D38" t="inlineStr">
-        <is>
-          <t>24.201000000000001</t>
-        </is>
+          <t>off-track</t>
+        </is>
+      </c>
+      <c r="C38">
+        <v>836.774</v>
+      </c>
+      <c r="D38">
+        <v>24.201</v>
       </c>
       <c r="E38" t="inlineStr">
         <is>
@@ -1669,18 +1521,14 @@
       </c>
       <c r="B39" t="inlineStr">
         <is>
-          <t>Acceleration Needed</t>
-        </is>
-      </c>
-      <c r="C39" t="inlineStr">
-        <is>
-          <t>5970.424</t>
-        </is>
-      </c>
-      <c r="D39" t="inlineStr">
-        <is>
-          <t>180.17500000000001</t>
-        </is>
+          <t>off-track</t>
+        </is>
+      </c>
+      <c r="C39">
+        <v>5970.424</v>
+      </c>
+      <c r="D39">
+        <v>180.175</v>
       </c>
       <c r="E39" t="inlineStr">
         <is>
@@ -1696,18 +1544,14 @@
       </c>
       <c r="B40" t="inlineStr">
         <is>
-          <t>Achieved</t>
-        </is>
-      </c>
-      <c r="C40" t="inlineStr">
-        <is>
-          <t>17.010999999999999</t>
-        </is>
-      </c>
-      <c r="D40" t="inlineStr">
-        <is>
-          <t>0.27500000000000002</t>
-        </is>
+          <t>on-track</t>
+        </is>
+      </c>
+      <c r="C40">
+        <v>17.011</v>
+      </c>
+      <c r="D40">
+        <v>0.275</v>
       </c>
       <c r="E40" t="inlineStr">
         <is>
@@ -1723,18 +1567,14 @@
       </c>
       <c r="B41" t="inlineStr">
         <is>
-          <t>Achieved</t>
-        </is>
-      </c>
-      <c r="C41" t="inlineStr">
-        <is>
-          <t>51874.023999999998</t>
-        </is>
-      </c>
-      <c r="D41" t="inlineStr">
-        <is>
-          <t>723.26400000000001</t>
-        </is>
+          <t>on-track</t>
+        </is>
+      </c>
+      <c r="C41">
+        <v>51874.024</v>
+      </c>
+      <c r="D41">
+        <v>723.264</v>
       </c>
       <c r="E41" t="inlineStr">
         <is>
@@ -1756,18 +1596,14 @@
       </c>
       <c r="B42" t="inlineStr">
         <is>
-          <t>Acceleration Needed</t>
-        </is>
-      </c>
-      <c r="C42" t="inlineStr">
-        <is>
-          <t>28160.542000000001</t>
-        </is>
-      </c>
-      <c r="D42" t="inlineStr">
-        <is>
-          <t>943.13300000000004</t>
-        </is>
+          <t>off-track</t>
+        </is>
+      </c>
+      <c r="C42">
+        <v>28160.542</v>
+      </c>
+      <c r="D42">
+        <v>943.133</v>
       </c>
       <c r="E42" t="inlineStr">
         <is>
@@ -1795,18 +1631,14 @@
       </c>
       <c r="B43" t="inlineStr">
         <is>
-          <t>Achieved</t>
-        </is>
-      </c>
-      <c r="C43" t="inlineStr">
-        <is>
-          <t>593.149</t>
-        </is>
-      </c>
-      <c r="D43" t="inlineStr">
-        <is>
-          <t>9.9079999999999995</t>
-        </is>
+          <t>on-track</t>
+        </is>
+      </c>
+      <c r="C43">
+        <v>593.149</v>
+      </c>
+      <c r="D43">
+        <v>9.907999999999999</v>
       </c>
       <c r="E43" t="inlineStr">
         <is>
@@ -1834,18 +1666,14 @@
       </c>
       <c r="B44" t="inlineStr">
         <is>
-          <t>Achieved</t>
-        </is>
-      </c>
-      <c r="C44" t="inlineStr">
-        <is>
-          <t>5180.8289999999997</t>
-        </is>
-      </c>
-      <c r="D44" t="inlineStr">
-        <is>
-          <t>60.517000000000003</t>
-        </is>
+          <t>on-track</t>
+        </is>
+      </c>
+      <c r="C44">
+        <v>5180.829</v>
+      </c>
+      <c r="D44">
+        <v>60.517</v>
       </c>
       <c r="E44" t="inlineStr">
         <is>
@@ -1873,18 +1701,14 @@
       </c>
       <c r="B45" t="inlineStr">
         <is>
-          <t>Achieved</t>
-        </is>
-      </c>
-      <c r="C45" t="inlineStr">
-        <is>
-          <t>11212.191000000001</t>
-        </is>
-      </c>
-      <c r="D45" t="inlineStr">
-        <is>
-          <t>99.692999999999998</t>
-        </is>
+          <t>on-track</t>
+        </is>
+      </c>
+      <c r="C45">
+        <v>11212.191</v>
+      </c>
+      <c r="D45">
+        <v>99.693</v>
       </c>
       <c r="E45" t="inlineStr">
         <is>
@@ -1912,18 +1736,14 @@
       </c>
       <c r="B46" t="inlineStr">
         <is>
-          <t>Achieved</t>
-        </is>
-      </c>
-      <c r="C46" t="inlineStr">
-        <is>
-          <t>1251.4880000000001</t>
-        </is>
-      </c>
-      <c r="D46" t="inlineStr">
-        <is>
-          <t>12.516999999999999</t>
-        </is>
+          <t>on-track</t>
+        </is>
+      </c>
+      <c r="C46">
+        <v>1251.488</v>
+      </c>
+      <c r="D46">
+        <v>12.517</v>
       </c>
       <c r="E46" t="inlineStr">
         <is>
@@ -1945,18 +1765,14 @@
       </c>
       <c r="B47" t="inlineStr">
         <is>
-          <t>Achieved</t>
-        </is>
-      </c>
-      <c r="C47" t="inlineStr">
-        <is>
-          <t>10493.986000000001</t>
-        </is>
-      </c>
-      <c r="D47" t="inlineStr">
-        <is>
-          <t>101.55500000000001</t>
-        </is>
+          <t>on-track</t>
+        </is>
+      </c>
+      <c r="C47">
+        <v>10493.986</v>
+      </c>
+      <c r="D47">
+        <v>101.555</v>
       </c>
       <c r="E47" t="inlineStr">
         <is>
@@ -1972,18 +1788,14 @@
       </c>
       <c r="B48" t="inlineStr">
         <is>
-          <t>Achieved</t>
-        </is>
-      </c>
-      <c r="C48" t="inlineStr">
-        <is>
-          <t>83369.842999999993</t>
-        </is>
-      </c>
-      <c r="D48" t="inlineStr">
-        <is>
-          <t>761.19399999999996</t>
-        </is>
+          <t>on-track</t>
+        </is>
+      </c>
+      <c r="C48">
+        <v>83369.84299999999</v>
+      </c>
+      <c r="D48">
+        <v>761.194</v>
       </c>
       <c r="E48" t="inlineStr">
         <is>
@@ -2005,18 +1817,14 @@
       </c>
       <c r="B49" t="inlineStr">
         <is>
-          <t>Acceleration Needed</t>
-        </is>
-      </c>
-      <c r="C49" t="inlineStr">
-        <is>
-          <t>99010.212</t>
-        </is>
-      </c>
-      <c r="D49" t="inlineStr">
-        <is>
-          <t>4133.9870000000001</t>
-        </is>
+          <t>off-track</t>
+        </is>
+      </c>
+      <c r="C49">
+        <v>99010.212</v>
+      </c>
+      <c r="D49">
+        <v>4133.987</v>
       </c>
       <c r="E49" t="inlineStr">
         <is>
@@ -2044,18 +1852,14 @@
       </c>
       <c r="B50" t="inlineStr">
         <is>
-          <t>Acceleration Needed</t>
-        </is>
-      </c>
-      <c r="C50" t="inlineStr">
-        <is>
-          <t>72.736999999999995</t>
-        </is>
-      </c>
-      <c r="D50" t="inlineStr">
-        <is>
-          <t>0.96599999999999997</t>
-        </is>
+          <t>off-track</t>
+        </is>
+      </c>
+      <c r="C50">
+        <v>72.73699999999999</v>
+      </c>
+      <c r="D50">
+        <v>0.966</v>
       </c>
       <c r="E50" t="inlineStr">
         <is>
@@ -2077,18 +1881,14 @@
       </c>
       <c r="B51" t="inlineStr">
         <is>
-          <t>Achieved</t>
-        </is>
-      </c>
-      <c r="C51" t="inlineStr">
-        <is>
-          <t>5882.2610000000004</t>
-        </is>
-      </c>
-      <c r="D51" t="inlineStr">
-        <is>
-          <t>64.106999999999999</t>
-        </is>
+          <t>on-track</t>
+        </is>
+      </c>
+      <c r="C51">
+        <v>5882.261</v>
+      </c>
+      <c r="D51">
+        <v>64.107</v>
       </c>
       <c r="E51" t="inlineStr">
         <is>
@@ -2110,18 +1910,14 @@
       </c>
       <c r="B52" t="inlineStr">
         <is>
-          <t>Acceleration Needed</t>
-        </is>
-      </c>
-      <c r="C52" t="inlineStr">
-        <is>
-          <t>11228.821</t>
-        </is>
-      </c>
-      <c r="D52" t="inlineStr">
-        <is>
-          <t>203.625</t>
-        </is>
+          <t>off-track</t>
+        </is>
+      </c>
+      <c r="C52">
+        <v>11228.821</v>
+      </c>
+      <c r="D52">
+        <v>203.625</v>
       </c>
       <c r="E52" t="inlineStr">
         <is>
@@ -2149,18 +1945,14 @@
       </c>
       <c r="B53" t="inlineStr">
         <is>
-          <t>Achieved</t>
-        </is>
-      </c>
-      <c r="C53" t="inlineStr">
-        <is>
-          <t>44903.224999999999</t>
-        </is>
-      </c>
-      <c r="D53" t="inlineStr">
-        <is>
-          <t>923.64800000000002</t>
-        </is>
+          <t>on-track</t>
+        </is>
+      </c>
+      <c r="C53">
+        <v>44903.225</v>
+      </c>
+      <c r="D53">
+        <v>923.648</v>
       </c>
       <c r="E53" t="inlineStr">
         <is>
@@ -2188,18 +1980,14 @@
       </c>
       <c r="B54" t="inlineStr">
         <is>
-          <t>Achieved</t>
-        </is>
-      </c>
-      <c r="C54" t="inlineStr">
-        <is>
-          <t>18001</t>
-        </is>
-      </c>
-      <c r="D54" t="inlineStr">
-        <is>
-          <t>298.666</t>
-        </is>
+          <t>on-track</t>
+        </is>
+      </c>
+      <c r="C54">
+        <v>18001</v>
+      </c>
+      <c r="D54">
+        <v>298.666</v>
       </c>
       <c r="E54" t="inlineStr">
         <is>
@@ -2221,18 +2009,14 @@
       </c>
       <c r="B55" t="inlineStr">
         <is>
-          <t>Achieved</t>
-        </is>
-      </c>
-      <c r="C55" t="inlineStr">
-        <is>
-          <t>110990.103</t>
-        </is>
-      </c>
-      <c r="D55" t="inlineStr">
-        <is>
-          <t>2453.9409999999998</t>
-        </is>
+          <t>on-track</t>
+        </is>
+      </c>
+      <c r="C55">
+        <v>110990.103</v>
+      </c>
+      <c r="D55">
+        <v>2453.941</v>
       </c>
       <c r="E55" t="inlineStr">
         <is>
@@ -2260,18 +2044,14 @@
       </c>
       <c r="B56" t="inlineStr">
         <is>
-          <t>Acceleration Needed</t>
-        </is>
-      </c>
-      <c r="C56" t="inlineStr">
-        <is>
-          <t>1120.8489999999999</t>
-        </is>
-      </c>
-      <c r="D56" t="inlineStr">
-        <is>
-          <t>24.548999999999999</t>
-        </is>
+          <t>off-track</t>
+        </is>
+      </c>
+      <c r="C56">
+        <v>1120.849</v>
+      </c>
+      <c r="D56">
+        <v>24.549</v>
       </c>
       <c r="E56" t="inlineStr">
         <is>
@@ -2287,18 +2067,14 @@
       </c>
       <c r="B57" t="inlineStr">
         <is>
-          <t>Achieved</t>
-        </is>
-      </c>
-      <c r="C57" t="inlineStr">
-        <is>
-          <t>47558.63</t>
-        </is>
-      </c>
-      <c r="D57" t="inlineStr">
-        <is>
-          <t>356.35899999999998</t>
-        </is>
+          <t>on-track</t>
+        </is>
+      </c>
+      <c r="C57">
+        <v>47558.63</v>
+      </c>
+      <c r="D57">
+        <v>356.359</v>
       </c>
       <c r="E57" t="inlineStr">
         <is>
@@ -2320,18 +2096,14 @@
       </c>
       <c r="B58" t="inlineStr">
         <is>
-          <t>Achieved</t>
-        </is>
-      </c>
-      <c r="C58" t="inlineStr">
-        <is>
-          <t>1326.0619999999999</t>
-        </is>
-      </c>
-      <c r="D58" t="inlineStr">
-        <is>
-          <t>13.422000000000001</t>
-        </is>
+          <t>on-track</t>
+        </is>
+      </c>
+      <c r="C58">
+        <v>1326.062</v>
+      </c>
+      <c r="D58">
+        <v>13.422</v>
       </c>
       <c r="E58" t="inlineStr">
         <is>
@@ -2353,18 +2125,14 @@
       </c>
       <c r="B59" t="inlineStr">
         <is>
-          <t>Acceleration Needed</t>
-        </is>
-      </c>
-      <c r="C59" t="inlineStr">
-        <is>
-          <t>123379.924</t>
-        </is>
-      </c>
-      <c r="D59" t="inlineStr">
-        <is>
-          <t>3928.4450000000002</t>
-        </is>
+          <t>off-track</t>
+        </is>
+      </c>
+      <c r="C59">
+        <v>123379.924</v>
+      </c>
+      <c r="D59">
+        <v>3928.445</v>
       </c>
       <c r="E59" t="inlineStr">
         <is>
@@ -2392,18 +2160,14 @@
       </c>
       <c r="B60" t="inlineStr">
         <is>
-          <t>Achieved</t>
-        </is>
-      </c>
-      <c r="C60" t="inlineStr">
-        <is>
-          <t>5540.7449999999999</t>
-        </is>
-      </c>
-      <c r="D60" t="inlineStr">
-        <is>
-          <t>47.136000000000003</t>
-        </is>
+          <t>on-track</t>
+        </is>
+      </c>
+      <c r="C60">
+        <v>5540.745</v>
+      </c>
+      <c r="D60">
+        <v>47.136</v>
       </c>
       <c r="E60" t="inlineStr">
         <is>
@@ -2425,18 +2189,14 @@
       </c>
       <c r="B61" t="inlineStr">
         <is>
-          <t>Acceleration Needed</t>
-        </is>
-      </c>
-      <c r="C61" t="inlineStr">
-        <is>
-          <t>1674.9079999999999</t>
-        </is>
-      </c>
-      <c r="D61" t="inlineStr">
-        <is>
-          <t>49.963999999999999</t>
-        </is>
+          <t>off-track</t>
+        </is>
+      </c>
+      <c r="C61">
+        <v>1674.908</v>
+      </c>
+      <c r="D61">
+        <v>49.964</v>
       </c>
       <c r="E61" t="inlineStr">
         <is>
@@ -2452,18 +2212,14 @@
       </c>
       <c r="B62" t="inlineStr">
         <is>
-          <t>Achieved</t>
-        </is>
-      </c>
-      <c r="C62" t="inlineStr">
-        <is>
-          <t>64626.627999999997</t>
-        </is>
-      </c>
-      <c r="D62" t="inlineStr">
-        <is>
-          <t>672.88</t>
-        </is>
+          <t>on-track</t>
+        </is>
+      </c>
+      <c r="C62">
+        <v>64626.628</v>
+      </c>
+      <c r="D62">
+        <v>672.88</v>
       </c>
       <c r="E62" t="inlineStr">
         <is>
@@ -2485,18 +2241,14 @@
       </c>
       <c r="B63" t="inlineStr">
         <is>
-          <t>Achieved</t>
-        </is>
-      </c>
-      <c r="C63" t="inlineStr">
-        <is>
-          <t>114.164</t>
-        </is>
-      </c>
-      <c r="D63" t="inlineStr">
-        <is>
-          <t>2.3679999999999999</t>
-        </is>
+          <t>on-track</t>
+        </is>
+      </c>
+      <c r="C63">
+        <v>114.164</v>
+      </c>
+      <c r="D63">
+        <v>2.368</v>
       </c>
       <c r="E63" t="inlineStr">
         <is>
@@ -2512,18 +2264,14 @@
       </c>
       <c r="B64" t="inlineStr">
         <is>
-          <t>Acceleration Needed</t>
-        </is>
-      </c>
-      <c r="C64" t="inlineStr">
-        <is>
-          <t>3684.0320000000002</t>
-        </is>
-      </c>
-      <c r="D64" t="inlineStr">
-        <is>
-          <t>104.98099999999999</t>
-        </is>
+          <t>off-track</t>
+        </is>
+      </c>
+      <c r="C64">
+        <v>3684.032</v>
+      </c>
+      <c r="D64">
+        <v>104.981</v>
       </c>
       <c r="E64" t="inlineStr">
         <is>
@@ -2539,18 +2287,14 @@
       </c>
       <c r="B65" t="inlineStr">
         <is>
-          <t>Achieved</t>
-        </is>
-      </c>
-      <c r="C65" t="inlineStr">
-        <is>
-          <t>67508.936000000002</t>
-        </is>
-      </c>
-      <c r="D65" t="inlineStr">
-        <is>
-          <t>676.88699999999994</t>
-        </is>
+          <t>on-track</t>
+        </is>
+      </c>
+      <c r="C65">
+        <v>67508.936</v>
+      </c>
+      <c r="D65">
+        <v>676.8869999999999</v>
       </c>
       <c r="E65" t="inlineStr">
         <is>
@@ -2566,18 +2310,14 @@
       </c>
       <c r="B66" t="inlineStr">
         <is>
-          <t>Achieved</t>
-        </is>
-      </c>
-      <c r="C66" t="inlineStr">
-        <is>
-          <t>3744.3850000000002</t>
-        </is>
-      </c>
-      <c r="D66" t="inlineStr">
-        <is>
-          <t>49.106000000000002</t>
-        </is>
+          <t>on-track</t>
+        </is>
+      </c>
+      <c r="C66">
+        <v>3744.385</v>
+      </c>
+      <c r="D66">
+        <v>49.106</v>
       </c>
       <c r="E66" t="inlineStr">
         <is>
@@ -2605,18 +2345,14 @@
       </c>
       <c r="B67" t="inlineStr">
         <is>
-          <t>Acceleration Needed</t>
-        </is>
-      </c>
-      <c r="C67" t="inlineStr">
-        <is>
-          <t>1201.67</t>
-        </is>
-      </c>
-      <c r="D67" t="inlineStr">
-        <is>
-          <t>28.475999999999999</t>
-        </is>
+          <t>off-track</t>
+        </is>
+      </c>
+      <c r="C67">
+        <v>1201.67</v>
+      </c>
+      <c r="D67">
+        <v>28.476</v>
       </c>
       <c r="E67" t="inlineStr">
         <is>
@@ -2644,18 +2380,14 @@
       </c>
       <c r="B68" t="inlineStr">
         <is>
-          <t>Acceleration Needed</t>
-        </is>
-      </c>
-      <c r="C68" t="inlineStr">
-        <is>
-          <t>929.76599999999996</t>
-        </is>
-      </c>
-      <c r="D68" t="inlineStr">
-        <is>
-          <t>17.821000000000002</t>
-        </is>
+          <t>off-track</t>
+        </is>
+      </c>
+      <c r="C68">
+        <v>929.766</v>
+      </c>
+      <c r="D68">
+        <v>17.821</v>
       </c>
       <c r="E68" t="inlineStr">
         <is>
@@ -2683,18 +2415,14 @@
       </c>
       <c r="B69" t="inlineStr">
         <is>
-          <t>Acceleration Needed</t>
-        </is>
-      </c>
-      <c r="C69" t="inlineStr">
-        <is>
-          <t>2388.9920000000002</t>
-        </is>
-      </c>
-      <c r="D69" t="inlineStr">
-        <is>
-          <t>64.022000000000006</t>
-        </is>
+          <t>off-track</t>
+        </is>
+      </c>
+      <c r="C69">
+        <v>2388.992</v>
+      </c>
+      <c r="D69">
+        <v>64.02200000000001</v>
       </c>
       <c r="E69" t="inlineStr">
         <is>
@@ -2722,18 +2450,14 @@
       </c>
       <c r="B70" t="inlineStr">
         <is>
-          <t>Acceleration Needed</t>
-        </is>
-      </c>
-      <c r="C70" t="inlineStr">
-        <is>
-          <t>2705.9920000000002</t>
-        </is>
-      </c>
-      <c r="D70" t="inlineStr">
-        <is>
-          <t>88.534999999999997</t>
-        </is>
+          <t>off-track</t>
+        </is>
+      </c>
+      <c r="C70">
+        <v>2705.992</v>
+      </c>
+      <c r="D70">
+        <v>88.535</v>
       </c>
       <c r="E70" t="inlineStr">
         <is>
@@ -2761,18 +2485,14 @@
       </c>
       <c r="B71" t="inlineStr">
         <is>
-          <t>Acceleration Needed</t>
-        </is>
-      </c>
-      <c r="C71" t="inlineStr">
-        <is>
-          <t>33475.870000000003</t>
-        </is>
-      </c>
-      <c r="D71" t="inlineStr">
-        <is>
-          <t>906.67700000000002</t>
-        </is>
+          <t>off-track</t>
+        </is>
+      </c>
+      <c r="C71">
+        <v>33475.87</v>
+      </c>
+      <c r="D71">
+        <v>906.677</v>
       </c>
       <c r="E71" t="inlineStr">
         <is>
@@ -2800,18 +2520,14 @@
       </c>
       <c r="B72" t="inlineStr">
         <is>
-          <t>Achieved</t>
-        </is>
-      </c>
-      <c r="C72" t="inlineStr">
-        <is>
-          <t>10384.971</t>
-        </is>
-      </c>
-      <c r="D72" t="inlineStr">
-        <is>
-          <t>77.141000000000005</t>
-        </is>
+          <t>on-track</t>
+        </is>
+      </c>
+      <c r="C72">
+        <v>10384.971</v>
+      </c>
+      <c r="D72">
+        <v>77.14100000000001</v>
       </c>
       <c r="E72" t="inlineStr">
         <is>
@@ -2833,18 +2549,14 @@
       </c>
       <c r="B73" t="inlineStr">
         <is>
-          <t>Achieved</t>
-        </is>
-      </c>
-      <c r="C73" t="inlineStr">
-        <is>
-          <t>125.438</t>
-        </is>
-      </c>
-      <c r="D73" t="inlineStr">
-        <is>
-          <t>1.96</t>
-        </is>
+          <t>on-track</t>
+        </is>
+      </c>
+      <c r="C73">
+        <v>125.438</v>
+      </c>
+      <c r="D73">
+        <v>1.96</v>
       </c>
       <c r="E73" t="inlineStr">
         <is>
@@ -2866,18 +2578,14 @@
       </c>
       <c r="B74" t="inlineStr">
         <is>
-          <t>Achieved</t>
-        </is>
-      </c>
-      <c r="C74" t="inlineStr">
-        <is>
-          <t>17843.907999999999</t>
-        </is>
-      </c>
-      <c r="D74" t="inlineStr">
-        <is>
-          <t>372.33499999999998</t>
-        </is>
+          <t>on-track</t>
+        </is>
+      </c>
+      <c r="C74">
+        <v>17843.908</v>
+      </c>
+      <c r="D74">
+        <v>372.335</v>
       </c>
       <c r="E74" t="inlineStr">
         <is>
@@ -2893,18 +2601,14 @@
       </c>
       <c r="B75" t="inlineStr">
         <is>
-          <t>On Track</t>
-        </is>
-      </c>
-      <c r="C75" t="inlineStr">
-        <is>
-          <t>808.726</t>
-        </is>
-      </c>
-      <c r="D75" t="inlineStr">
-        <is>
-          <t>16.129000000000001</t>
-        </is>
+          <t>on-track</t>
+        </is>
+      </c>
+      <c r="C75">
+        <v>808.726</v>
+      </c>
+      <c r="D75">
+        <v>16.129</v>
       </c>
       <c r="E75" t="inlineStr">
         <is>
@@ -2932,18 +2636,14 @@
       </c>
       <c r="B76" t="inlineStr">
         <is>
-          <t>Achieved</t>
-        </is>
-      </c>
-      <c r="C76" t="inlineStr">
-        <is>
-          <t>10432.86</t>
-        </is>
-      </c>
-      <c r="D76" t="inlineStr">
-        <is>
-          <t>217.59</t>
-        </is>
+          <t>on-track</t>
+        </is>
+      </c>
+      <c r="C76">
+        <v>10432.86</v>
+      </c>
+      <c r="D76">
+        <v>217.59</v>
       </c>
       <c r="E76" t="inlineStr">
         <is>
@@ -2971,18 +2671,14 @@
       </c>
       <c r="B77" t="inlineStr">
         <is>
-          <t>Achieved</t>
-        </is>
-      </c>
-      <c r="C77" t="inlineStr">
-        <is>
-          <t>4030.3580000000002</t>
-        </is>
-      </c>
-      <c r="D77" t="inlineStr">
-        <is>
-          <t>33.923999999999999</t>
-        </is>
+          <t>on-track</t>
+        </is>
+      </c>
+      <c r="C77">
+        <v>4030.358</v>
+      </c>
+      <c r="D77">
+        <v>33.924</v>
       </c>
       <c r="E77" t="inlineStr">
         <is>
@@ -3010,18 +2706,14 @@
       </c>
       <c r="B78" t="inlineStr">
         <is>
-          <t>Acceleration Needed</t>
-        </is>
-      </c>
-      <c r="C78" t="inlineStr">
-        <is>
-          <t>13859.341</t>
-        </is>
-      </c>
-      <c r="D78" t="inlineStr">
-        <is>
-          <t>469.31099999999998</t>
-        </is>
+          <t>off-track</t>
+        </is>
+      </c>
+      <c r="C78">
+        <v>13859.341</v>
+      </c>
+      <c r="D78">
+        <v>469.311</v>
       </c>
       <c r="E78" t="inlineStr">
         <is>
@@ -3049,18 +2741,14 @@
       </c>
       <c r="B79" t="inlineStr">
         <is>
-          <t>Achieved</t>
-        </is>
-      </c>
-      <c r="C79" t="inlineStr">
-        <is>
-          <t>9967.3080000000009</t>
-        </is>
-      </c>
-      <c r="D79" t="inlineStr">
-        <is>
-          <t>91.370999999999995</t>
-        </is>
+          <t>on-track</t>
+        </is>
+      </c>
+      <c r="C79">
+        <v>9967.308000000001</v>
+      </c>
+      <c r="D79">
+        <v>91.371</v>
       </c>
       <c r="E79" t="inlineStr">
         <is>
@@ -3076,18 +2764,14 @@
       </c>
       <c r="B80" t="inlineStr">
         <is>
-          <t>Achieved</t>
-        </is>
-      </c>
-      <c r="C80" t="inlineStr">
-        <is>
-          <t>275501.33899999998</t>
-        </is>
-      </c>
-      <c r="D80" t="inlineStr">
-        <is>
-          <t>4462.2120000000004</t>
-        </is>
+          <t>on-track</t>
+        </is>
+      </c>
+      <c r="C80">
+        <v>275501.339</v>
+      </c>
+      <c r="D80">
+        <v>4462.212</v>
       </c>
       <c r="E80" t="inlineStr">
         <is>
@@ -3109,18 +2793,14 @@
       </c>
       <c r="B81" t="inlineStr">
         <is>
-          <t>On Track</t>
-        </is>
-      </c>
-      <c r="C81" t="inlineStr">
-        <is>
-          <t>1417173.173</t>
-        </is>
-      </c>
-      <c r="D81" t="inlineStr">
-        <is>
-          <t>23056.026999999998</t>
-        </is>
+          <t>on-track</t>
+        </is>
+      </c>
+      <c r="C81">
+        <v>1417173.173</v>
+      </c>
+      <c r="D81">
+        <v>23056.027</v>
       </c>
       <c r="E81" t="inlineStr">
         <is>
@@ -3148,18 +2828,14 @@
       </c>
       <c r="B82" t="inlineStr">
         <is>
-          <t>Achieved</t>
-        </is>
-      </c>
-      <c r="C82" t="inlineStr">
-        <is>
-          <t>5023.1090000000004</t>
-        </is>
-      </c>
-      <c r="D82" t="inlineStr">
-        <is>
-          <t>57.561</t>
-        </is>
+          <t>on-track</t>
+        </is>
+      </c>
+      <c r="C82">
+        <v>5023.109</v>
+      </c>
+      <c r="D82">
+        <v>57.561</v>
       </c>
       <c r="E82" t="inlineStr">
         <is>
@@ -3181,18 +2857,14 @@
       </c>
       <c r="B83" t="inlineStr">
         <is>
-          <t>Achieved</t>
-        </is>
-      </c>
-      <c r="C83" t="inlineStr">
-        <is>
-          <t>88550.57</t>
-        </is>
-      </c>
-      <c r="D83" t="inlineStr">
-        <is>
-          <t>1172.7090000000001</t>
-        </is>
+          <t>on-track</t>
+        </is>
+      </c>
+      <c r="C83">
+        <v>88550.57000000001</v>
+      </c>
+      <c r="D83">
+        <v>1172.709</v>
       </c>
       <c r="E83" t="inlineStr">
         <is>
@@ -3208,18 +2880,14 @@
       </c>
       <c r="B84" t="inlineStr">
         <is>
-          <t>Achieved</t>
-        </is>
-      </c>
-      <c r="C84" t="inlineStr">
-        <is>
-          <t>44496.122000000003</t>
-        </is>
-      </c>
-      <c r="D84" t="inlineStr">
-        <is>
-          <t>1203.1880000000001</t>
-        </is>
+          <t>on-track</t>
+        </is>
+      </c>
+      <c r="C84">
+        <v>44496.122</v>
+      </c>
+      <c r="D84">
+        <v>1203.188</v>
       </c>
       <c r="E84" t="inlineStr">
         <is>
@@ -3247,18 +2915,14 @@
       </c>
       <c r="B85" t="inlineStr">
         <is>
-          <t>Achieved</t>
-        </is>
-      </c>
-      <c r="C85" t="inlineStr">
-        <is>
-          <t>372.899</t>
-        </is>
-      </c>
-      <c r="D85" t="inlineStr">
-        <is>
-          <t>4.5679999999999996</t>
-        </is>
+          <t>on-track</t>
+        </is>
+      </c>
+      <c r="C85">
+        <v>372.899</v>
+      </c>
+      <c r="D85">
+        <v>4.568</v>
       </c>
       <c r="E85" t="inlineStr">
         <is>
@@ -3280,18 +2944,14 @@
       </c>
       <c r="B86" t="inlineStr">
         <is>
-          <t>Achieved</t>
-        </is>
-      </c>
-      <c r="C86" t="inlineStr">
-        <is>
-          <t>9038.3089999999993</t>
-        </is>
-      </c>
-      <c r="D86" t="inlineStr">
-        <is>
-          <t>174.67500000000001</t>
-        </is>
+          <t>on-track</t>
+        </is>
+      </c>
+      <c r="C86">
+        <v>9038.308999999999</v>
+      </c>
+      <c r="D86">
+        <v>174.675</v>
       </c>
       <c r="E86" t="inlineStr">
         <is>
@@ -3307,18 +2967,14 @@
       </c>
       <c r="B87" t="inlineStr">
         <is>
-          <t>Achieved</t>
-        </is>
-      </c>
-      <c r="C87" t="inlineStr">
-        <is>
-          <t>59037.474000000002</t>
-        </is>
-      </c>
-      <c r="D87" t="inlineStr">
-        <is>
-          <t>407.303</t>
-        </is>
+          <t>on-track</t>
+        </is>
+      </c>
+      <c r="C87">
+        <v>59037.474</v>
+      </c>
+      <c r="D87">
+        <v>407.303</v>
       </c>
       <c r="E87" t="inlineStr">
         <is>
@@ -3340,18 +2996,14 @@
       </c>
       <c r="B88" t="inlineStr">
         <is>
-          <t>Achieved</t>
-        </is>
-      </c>
-      <c r="C88" t="inlineStr">
-        <is>
-          <t>2827.377</t>
-        </is>
-      </c>
-      <c r="D88" t="inlineStr">
-        <is>
-          <t>32.662999999999997</t>
-        </is>
+          <t>on-track</t>
+        </is>
+      </c>
+      <c r="C88">
+        <v>2827.377</v>
+      </c>
+      <c r="D88">
+        <v>32.663</v>
       </c>
       <c r="E88" t="inlineStr">
         <is>
@@ -3373,18 +3025,14 @@
       </c>
       <c r="B89" t="inlineStr">
         <is>
-          <t>Achieved</t>
-        </is>
-      </c>
-      <c r="C89" t="inlineStr">
-        <is>
-          <t>11285.869000000001</t>
-        </is>
-      </c>
-      <c r="D89" t="inlineStr">
-        <is>
-          <t>245.48400000000001</t>
-        </is>
+          <t>on-track</t>
+        </is>
+      </c>
+      <c r="C89">
+        <v>11285.869</v>
+      </c>
+      <c r="D89">
+        <v>245.484</v>
       </c>
       <c r="E89" t="inlineStr">
         <is>
@@ -3412,18 +3060,14 @@
       </c>
       <c r="B90" t="inlineStr">
         <is>
-          <t>Achieved</t>
-        </is>
-      </c>
-      <c r="C90" t="inlineStr">
-        <is>
-          <t>123951.692</t>
-        </is>
-      </c>
-      <c r="D90" t="inlineStr">
-        <is>
-          <t>814.70500000000004</t>
-        </is>
+          <t>on-track</t>
+        </is>
+      </c>
+      <c r="C90">
+        <v>123951.692</v>
+      </c>
+      <c r="D90">
+        <v>814.705</v>
       </c>
       <c r="E90" t="inlineStr">
         <is>
@@ -3445,18 +3089,14 @@
       </c>
       <c r="B91" t="inlineStr">
         <is>
-          <t>Achieved</t>
-        </is>
-      </c>
-      <c r="C91" t="inlineStr">
-        <is>
-          <t>19397.998</t>
-        </is>
-      </c>
-      <c r="D91" t="inlineStr">
-        <is>
-          <t>402.51100000000002</t>
-        </is>
+          <t>on-track</t>
+        </is>
+      </c>
+      <c r="C91">
+        <v>19397.998</v>
+      </c>
+      <c r="D91">
+        <v>402.511</v>
       </c>
       <c r="E91" t="inlineStr">
         <is>
@@ -3478,18 +3118,14 @@
       </c>
       <c r="B92" t="inlineStr">
         <is>
-          <t>Acceleration Needed</t>
-        </is>
-      </c>
-      <c r="C92" t="inlineStr">
-        <is>
-          <t>2105.5659999999998</t>
-        </is>
-      </c>
-      <c r="D92" t="inlineStr">
-        <is>
-          <t>64.478999999999999</t>
-        </is>
+          <t>off-track</t>
+        </is>
+      </c>
+      <c r="C92">
+        <v>2105.566</v>
+      </c>
+      <c r="D92">
+        <v>64.479</v>
       </c>
       <c r="E92" t="inlineStr">
         <is>
@@ -3517,18 +3153,14 @@
       </c>
       <c r="B93" t="inlineStr">
         <is>
-          <t>Achieved</t>
-        </is>
-      </c>
-      <c r="C93" t="inlineStr">
-        <is>
-          <t>6630.6229999999996</t>
-        </is>
-      </c>
-      <c r="D93" t="inlineStr">
-        <is>
-          <t>154.761</t>
-        </is>
+          <t>on-track</t>
+        </is>
+      </c>
+      <c r="C93">
+        <v>6630.623</v>
+      </c>
+      <c r="D93">
+        <v>154.761</v>
       </c>
       <c r="E93" t="inlineStr">
         <is>
@@ -3556,18 +3188,14 @@
       </c>
       <c r="B94" t="inlineStr">
         <is>
-          <t>Achieved</t>
-        </is>
-      </c>
-      <c r="C94" t="inlineStr">
-        <is>
-          <t>16767.842000000001</t>
-        </is>
-      </c>
-      <c r="D94" t="inlineStr">
-        <is>
-          <t>318.33499999999998</t>
-        </is>
+          <t>on-track</t>
+        </is>
+      </c>
+      <c r="C94">
+        <v>16767.842</v>
+      </c>
+      <c r="D94">
+        <v>318.335</v>
       </c>
       <c r="E94" t="inlineStr">
         <is>
@@ -3595,18 +3223,14 @@
       </c>
       <c r="B95" t="inlineStr">
         <is>
-          <t>Acceleration Needed</t>
-        </is>
-      </c>
-      <c r="C95" t="inlineStr">
-        <is>
-          <t>11584.995999999999</t>
-        </is>
-      </c>
-      <c r="D95" t="inlineStr">
-        <is>
-          <t>268.52300000000002</t>
-        </is>
+          <t>off-track</t>
+        </is>
+      </c>
+      <c r="C95">
+        <v>11584.996</v>
+      </c>
+      <c r="D95">
+        <v>268.523</v>
       </c>
       <c r="E95" t="inlineStr">
         <is>
@@ -3622,18 +3246,14 @@
       </c>
       <c r="B96" t="inlineStr">
         <is>
-          <t>Achieved</t>
-        </is>
-      </c>
-      <c r="C96" t="inlineStr">
-        <is>
-          <t>47.656999999999996</t>
-        </is>
-      </c>
-      <c r="D96" t="inlineStr">
-        <is>
-          <t>0.56299999999999994</t>
-        </is>
+          <t>on-track</t>
+        </is>
+      </c>
+      <c r="C96">
+        <v>47.657</v>
+      </c>
+      <c r="D96">
+        <v>0.5629999999999999</v>
       </c>
       <c r="E96" t="inlineStr">
         <is>
@@ -3655,18 +3275,14 @@
       </c>
       <c r="B97" t="inlineStr">
         <is>
-          <t>Achieved</t>
-        </is>
-      </c>
-      <c r="C97" t="inlineStr">
-        <is>
-          <t>51815.81</t>
-        </is>
-      </c>
-      <c r="D97" t="inlineStr">
-        <is>
-          <t>285.68599999999998</t>
-        </is>
+          <t>on-track</t>
+        </is>
+      </c>
+      <c r="C97">
+        <v>51815.81</v>
+      </c>
+      <c r="D97">
+        <v>285.686</v>
       </c>
       <c r="E97" t="inlineStr">
         <is>
@@ -3688,18 +3304,14 @@
       </c>
       <c r="B98" t="inlineStr">
         <is>
-          <t>Achieved</t>
-        </is>
-      </c>
-      <c r="C98" t="inlineStr">
-        <is>
-          <t>4268.8729999999996</t>
-        </is>
-      </c>
-      <c r="D98" t="inlineStr">
-        <is>
-          <t>41.456000000000003</t>
-        </is>
+          <t>on-track</t>
+        </is>
+      </c>
+      <c r="C98">
+        <v>4268.873</v>
+      </c>
+      <c r="D98">
+        <v>41.456</v>
       </c>
       <c r="E98" t="inlineStr">
         <is>
@@ -3721,18 +3333,14 @@
       </c>
       <c r="B99" t="inlineStr">
         <is>
-          <t>Acceleration Needed</t>
-        </is>
-      </c>
-      <c r="C99" t="inlineStr">
-        <is>
-          <t>54027.487000000001</t>
-        </is>
-      </c>
-      <c r="D99" t="inlineStr">
-        <is>
-          <t>1488.394</t>
-        </is>
+          <t>off-track</t>
+        </is>
+      </c>
+      <c r="C99">
+        <v>54027.487</v>
+      </c>
+      <c r="D99">
+        <v>1488.394</v>
       </c>
       <c r="E99" t="inlineStr">
         <is>
@@ -3760,18 +3368,14 @@
       </c>
       <c r="B100" t="inlineStr">
         <is>
-          <t>Achieved</t>
-        </is>
-      </c>
-      <c r="C100" t="inlineStr">
-        <is>
-          <t>5489.7389999999996</t>
-        </is>
-      </c>
-      <c r="D100" t="inlineStr">
-        <is>
-          <t>81.179000000000002</t>
-        </is>
+          <t>on-track</t>
+        </is>
+      </c>
+      <c r="C100">
+        <v>5489.739</v>
+      </c>
+      <c r="D100">
+        <v>81.179</v>
       </c>
       <c r="E100" t="inlineStr">
         <is>
@@ -3787,18 +3391,14 @@
       </c>
       <c r="B101" t="inlineStr">
         <is>
-          <t>Acceleration Needed</t>
-        </is>
-      </c>
-      <c r="C101" t="inlineStr">
-        <is>
-          <t>131.232</t>
-        </is>
-      </c>
-      <c r="D101" t="inlineStr">
-        <is>
-          <t>3.512</t>
-        </is>
+          <t>off-track</t>
+        </is>
+      </c>
+      <c r="C101">
+        <v>131.232</v>
+      </c>
+      <c r="D101">
+        <v>3.512</v>
       </c>
       <c r="E101" t="inlineStr">
         <is>
@@ -3826,18 +3426,14 @@
       </c>
       <c r="B102" t="inlineStr">
         <is>
-          <t>Achieved</t>
-        </is>
-      </c>
-      <c r="C102" t="inlineStr">
-        <is>
-          <t>6812.3410000000003</t>
-        </is>
-      </c>
-      <c r="D102" t="inlineStr">
-        <is>
-          <t>117.846</t>
-        </is>
+          <t>on-track</t>
+        </is>
+      </c>
+      <c r="C102">
+        <v>6812.341</v>
+      </c>
+      <c r="D102">
+        <v>117.846</v>
       </c>
       <c r="E102" t="inlineStr">
         <is>
@@ -3853,18 +3449,14 @@
       </c>
       <c r="B103" t="inlineStr">
         <is>
-          <t>Achieved</t>
-        </is>
-      </c>
-      <c r="C103" t="inlineStr">
-        <is>
-          <t>179.857</t>
-        </is>
-      </c>
-      <c r="D103" t="inlineStr">
-        <is>
-          <t>2.0350000000000001</t>
-        </is>
+          <t>on-track</t>
+        </is>
+      </c>
+      <c r="C103">
+        <v>179.857</v>
+      </c>
+      <c r="D103">
+        <v>2.035</v>
       </c>
       <c r="E103" t="inlineStr">
         <is>
@@ -3886,18 +3478,14 @@
       </c>
       <c r="B104" t="inlineStr">
         <is>
-          <t>Achieved</t>
-        </is>
-      </c>
-      <c r="C104" t="inlineStr">
-        <is>
-          <t>21832.143</t>
-        </is>
-      </c>
-      <c r="D104" t="inlineStr">
-        <is>
-          <t>301.38299999999998</t>
-        </is>
+          <t>on-track</t>
+        </is>
+      </c>
+      <c r="C104">
+        <v>21832.143</v>
+      </c>
+      <c r="D104">
+        <v>301.383</v>
       </c>
       <c r="E104" t="inlineStr">
         <is>
@@ -3913,18 +3501,14 @@
       </c>
       <c r="B105" t="inlineStr">
         <is>
-          <t>Acceleration Needed</t>
-        </is>
-      </c>
-      <c r="C105" t="inlineStr">
-        <is>
-          <t>7529.4750000000004</t>
-        </is>
-      </c>
-      <c r="D105" t="inlineStr">
-        <is>
-          <t>161.68199999999999</t>
-        </is>
+          <t>off-track</t>
+        </is>
+      </c>
+      <c r="C105">
+        <v>7529.475</v>
+      </c>
+      <c r="D105">
+        <v>161.682</v>
       </c>
       <c r="E105" t="inlineStr">
         <is>
@@ -3940,18 +3524,14 @@
       </c>
       <c r="B106" t="inlineStr">
         <is>
-          <t>Achieved</t>
-        </is>
-      </c>
-      <c r="C106" t="inlineStr">
-        <is>
-          <t>2750.0549999999998</t>
-        </is>
-      </c>
-      <c r="D106" t="inlineStr">
-        <is>
-          <t>26.206</t>
-        </is>
+          <t>on-track</t>
+        </is>
+      </c>
+      <c r="C106">
+        <v>2750.055</v>
+      </c>
+      <c r="D106">
+        <v>26.206</v>
       </c>
       <c r="E106" t="inlineStr">
         <is>
@@ -3973,18 +3553,14 @@
       </c>
       <c r="B107" t="inlineStr">
         <is>
-          <t>Achieved</t>
-        </is>
-      </c>
-      <c r="C107" t="inlineStr">
-        <is>
-          <t>647.59900000000005</t>
-        </is>
-      </c>
-      <c r="D107" t="inlineStr">
-        <is>
-          <t>6.6749999999999998</t>
-        </is>
+          <t>on-track</t>
+        </is>
+      </c>
+      <c r="C107">
+        <v>647.599</v>
+      </c>
+      <c r="D107">
+        <v>6.675</v>
       </c>
       <c r="E107" t="inlineStr">
         <is>
@@ -4000,18 +3576,14 @@
       </c>
       <c r="B108" t="inlineStr">
         <is>
-          <t>Achieved</t>
-        </is>
-      </c>
-      <c r="C108" t="inlineStr">
-        <is>
-          <t>1850.6510000000001</t>
-        </is>
-      </c>
-      <c r="D108" t="inlineStr">
-        <is>
-          <t>16.530999999999999</t>
-        </is>
+          <t>on-track</t>
+        </is>
+      </c>
+      <c r="C108">
+        <v>1850.651</v>
+      </c>
+      <c r="D108">
+        <v>16.531</v>
       </c>
       <c r="E108" t="inlineStr">
         <is>
@@ -4033,18 +3605,14 @@
       </c>
       <c r="B109" t="inlineStr">
         <is>
-          <t>Achieved</t>
-        </is>
-      </c>
-      <c r="C109" t="inlineStr">
-        <is>
-          <t>37457.970999999998</t>
-        </is>
-      </c>
-      <c r="D109" t="inlineStr">
-        <is>
-          <t>643.10900000000004</t>
-        </is>
+          <t>on-track</t>
+        </is>
+      </c>
+      <c r="C109">
+        <v>37457.971</v>
+      </c>
+      <c r="D109">
+        <v>643.109</v>
       </c>
       <c r="E109" t="inlineStr">
         <is>
@@ -4072,18 +3640,14 @@
       </c>
       <c r="B110" t="inlineStr">
         <is>
-          <t>Achieved</t>
-        </is>
-      </c>
-      <c r="C110" t="inlineStr">
-        <is>
-          <t>36.469000000000001</t>
-        </is>
-      </c>
-      <c r="D110" t="inlineStr">
-        <is>
-          <t>0.31900000000000001</t>
-        </is>
+          <t>on-track</t>
+        </is>
+      </c>
+      <c r="C110">
+        <v>36.469</v>
+      </c>
+      <c r="D110">
+        <v>0.319</v>
       </c>
       <c r="E110" t="inlineStr">
         <is>
@@ -4099,18 +3663,14 @@
       </c>
       <c r="B111" t="inlineStr">
         <is>
-          <t>Achieved</t>
-        </is>
-      </c>
-      <c r="C111" t="inlineStr">
-        <is>
-          <t>3272.9960000000001</t>
-        </is>
-      </c>
-      <c r="D111" t="inlineStr">
-        <is>
-          <t>36.942999999999998</t>
-        </is>
+          <t>on-track</t>
+        </is>
+      </c>
+      <c r="C111">
+        <v>3272.996</v>
+      </c>
+      <c r="D111">
+        <v>36.943</v>
       </c>
       <c r="E111" t="inlineStr">
         <is>
@@ -4132,18 +3692,14 @@
       </c>
       <c r="B112" t="inlineStr">
         <is>
-          <t>Acceleration Needed</t>
-        </is>
-      </c>
-      <c r="C112" t="inlineStr">
-        <is>
-          <t>2305.8249999999998</t>
-        </is>
-      </c>
-      <c r="D112" t="inlineStr">
-        <is>
-          <t>59.49</t>
-        </is>
+          <t>off-track</t>
+        </is>
+      </c>
+      <c r="C112">
+        <v>2305.825</v>
+      </c>
+      <c r="D112">
+        <v>59.49</v>
       </c>
       <c r="E112" t="inlineStr">
         <is>
@@ -4171,18 +3727,14 @@
       </c>
       <c r="B113" t="inlineStr">
         <is>
-          <t>Achieved</t>
-        </is>
-      </c>
-      <c r="C113" t="inlineStr">
-        <is>
-          <t>523.78700000000003</t>
-        </is>
-      </c>
-      <c r="D113" t="inlineStr">
-        <is>
-          <t>7.1970000000000001</t>
-        </is>
+          <t>on-track</t>
+        </is>
+      </c>
+      <c r="C113">
+        <v>523.787</v>
+      </c>
+      <c r="D113">
+        <v>7.197</v>
       </c>
       <c r="E113" t="inlineStr">
         <is>
@@ -4198,18 +3750,14 @@
       </c>
       <c r="B114" t="inlineStr">
         <is>
-          <t>Achieved</t>
-        </is>
-      </c>
-      <c r="C114" t="inlineStr">
-        <is>
-          <t>127504.125</t>
-        </is>
-      </c>
-      <c r="D114" t="inlineStr">
-        <is>
-          <t>1866.3989999999999</t>
-        </is>
+          <t>on-track</t>
+        </is>
+      </c>
+      <c r="C114">
+        <v>127504.125</v>
+      </c>
+      <c r="D114">
+        <v>1866.399</v>
       </c>
       <c r="E114" t="inlineStr">
         <is>
@@ -4231,18 +3779,14 @@
       </c>
       <c r="B115" t="inlineStr">
         <is>
-          <t>On Track</t>
-        </is>
-      </c>
-      <c r="C115" t="inlineStr">
-        <is>
-          <t>41.569000000000003</t>
-        </is>
-      </c>
-      <c r="D115" t="inlineStr">
-        <is>
-          <t>0.77</t>
-        </is>
+          <t>on-track</t>
+        </is>
+      </c>
+      <c r="C115">
+        <v>41.569</v>
+      </c>
+      <c r="D115">
+        <v>0.77</v>
       </c>
       <c r="E115" t="inlineStr">
         <is>
@@ -4258,18 +3802,14 @@
       </c>
       <c r="B116" t="inlineStr">
         <is>
-          <t>Achieved</t>
-        </is>
-      </c>
-      <c r="C116" t="inlineStr">
-        <is>
-          <t>2093.5990000000002</t>
-        </is>
-      </c>
-      <c r="D116" t="inlineStr">
-        <is>
-          <t>19.992000000000001</t>
-        </is>
+          <t>on-track</t>
+        </is>
+      </c>
+      <c r="C116">
+        <v>2093.599</v>
+      </c>
+      <c r="D116">
+        <v>19.992</v>
       </c>
       <c r="E116" t="inlineStr">
         <is>
@@ -4297,18 +3837,14 @@
       </c>
       <c r="B117" t="inlineStr">
         <is>
-          <t>Acceleration Needed</t>
-        </is>
-      </c>
-      <c r="C117" t="inlineStr">
-        <is>
-          <t>5302.6809999999996</t>
-        </is>
-      </c>
-      <c r="D117" t="inlineStr">
-        <is>
-          <t>164.452</t>
-        </is>
+          <t>off-track</t>
+        </is>
+      </c>
+      <c r="C117">
+        <v>5302.681</v>
+      </c>
+      <c r="D117">
+        <v>164.452</v>
       </c>
       <c r="E117" t="inlineStr">
         <is>
@@ -4336,18 +3872,14 @@
       </c>
       <c r="B118" t="inlineStr">
         <is>
-          <t>Achieved</t>
-        </is>
-      </c>
-      <c r="C118" t="inlineStr">
-        <is>
-          <t>533.28599999999994</t>
-        </is>
-      </c>
-      <c r="D118" t="inlineStr">
-        <is>
-          <t>4.8570000000000002</t>
-        </is>
+          <t>on-track</t>
+        </is>
+      </c>
+      <c r="C118">
+        <v>533.2859999999999</v>
+      </c>
+      <c r="D118">
+        <v>4.857</v>
       </c>
       <c r="E118" t="inlineStr">
         <is>
@@ -4369,18 +3901,14 @@
       </c>
       <c r="B119" t="inlineStr">
         <is>
-          <t>Acceleration Needed</t>
-        </is>
-      </c>
-      <c r="C119" t="inlineStr">
-        <is>
-          <t>29611.714</t>
-        </is>
-      </c>
-      <c r="D119" t="inlineStr">
-        <is>
-          <t>906.13</t>
-        </is>
+          <t>off-track</t>
+        </is>
+      </c>
+      <c r="C119">
+        <v>29611.714</v>
+      </c>
+      <c r="D119">
+        <v>906.13</v>
       </c>
       <c r="E119" t="inlineStr">
         <is>
@@ -4408,18 +3936,14 @@
       </c>
       <c r="B120" t="inlineStr">
         <is>
-          <t>Achieved</t>
-        </is>
-      </c>
-      <c r="C120" t="inlineStr">
-        <is>
-          <t>627.08199999999999</t>
-        </is>
-      </c>
-      <c r="D120" t="inlineStr">
-        <is>
-          <t>6.859</t>
-        </is>
+          <t>on-track</t>
+        </is>
+      </c>
+      <c r="C120">
+        <v>627.082</v>
+      </c>
+      <c r="D120">
+        <v>6.859</v>
       </c>
       <c r="E120" t="inlineStr">
         <is>
@@ -4447,18 +3971,14 @@
       </c>
       <c r="B121" t="inlineStr">
         <is>
-          <t>Achieved</t>
-        </is>
-      </c>
-      <c r="C121" t="inlineStr">
-        <is>
-          <t>3398.366</t>
-        </is>
-      </c>
-      <c r="D121" t="inlineStr">
-        <is>
-          <t>69.480999999999995</t>
-        </is>
+          <t>on-track</t>
+        </is>
+      </c>
+      <c r="C121">
+        <v>3398.366</v>
+      </c>
+      <c r="D121">
+        <v>69.48099999999999</v>
       </c>
       <c r="E121" t="inlineStr">
         <is>
@@ -4486,18 +4006,14 @@
       </c>
       <c r="B122" t="inlineStr">
         <is>
-          <t>Acceleration Needed</t>
-        </is>
-      </c>
-      <c r="C122" t="inlineStr">
-        <is>
-          <t>22593.59</t>
-        </is>
-      </c>
-      <c r="D122" t="inlineStr">
-        <is>
-          <t>932.31700000000001</t>
-        </is>
+          <t>off-track</t>
+        </is>
+      </c>
+      <c r="C122">
+        <v>22593.59</v>
+      </c>
+      <c r="D122">
+        <v>932.317</v>
       </c>
       <c r="E122" t="inlineStr">
         <is>
@@ -4525,18 +4041,14 @@
       </c>
       <c r="B123" t="inlineStr">
         <is>
-          <t>Acceleration Needed</t>
-        </is>
-      </c>
-      <c r="C123" t="inlineStr">
-        <is>
-          <t>4736.1390000000001</t>
-        </is>
-      </c>
-      <c r="D123" t="inlineStr">
-        <is>
-          <t>156.047</t>
-        </is>
+          <t>off-track</t>
+        </is>
+      </c>
+      <c r="C123">
+        <v>4736.139</v>
+      </c>
+      <c r="D123">
+        <v>156.047</v>
       </c>
       <c r="E123" t="inlineStr">
         <is>
@@ -4564,18 +4076,14 @@
       </c>
       <c r="B124" t="inlineStr">
         <is>
-          <t>Achieved</t>
-        </is>
-      </c>
-      <c r="C124" t="inlineStr">
-        <is>
-          <t>4.3899999999999997</t>
-        </is>
-      </c>
-      <c r="D124" t="inlineStr">
-        <is>
-          <t>0.04</t>
-        </is>
+          <t>on-track</t>
+        </is>
+      </c>
+      <c r="C124">
+        <v>4.39</v>
+      </c>
+      <c r="D124">
+        <v>0.04</v>
       </c>
       <c r="E124" t="inlineStr">
         <is>
@@ -4597,18 +4105,14 @@
       </c>
       <c r="B125" t="inlineStr">
         <is>
-          <t>Achieved</t>
-        </is>
-      </c>
-      <c r="C125" t="inlineStr">
-        <is>
-          <t>1299.4690000000001</t>
-        </is>
-      </c>
-      <c r="D125" t="inlineStr">
-        <is>
-          <t>13.266</t>
-        </is>
+          <t>on-track</t>
+        </is>
+      </c>
+      <c r="C125">
+        <v>1299.469</v>
+      </c>
+      <c r="D125">
+        <v>13.266</v>
       </c>
       <c r="E125" t="inlineStr">
         <is>
@@ -4630,18 +4134,14 @@
       </c>
       <c r="B126" t="inlineStr">
         <is>
-          <t>Acceleration Needed</t>
-        </is>
-      </c>
-      <c r="C126" t="inlineStr">
-        <is>
-          <t>20405.316999999999</t>
-        </is>
-      </c>
-      <c r="D126" t="inlineStr">
-        <is>
-          <t>665.678</t>
-        </is>
+          <t>off-track</t>
+        </is>
+      </c>
+      <c r="C126">
+        <v>20405.317</v>
+      </c>
+      <c r="D126">
+        <v>665.678</v>
       </c>
       <c r="E126" t="inlineStr">
         <is>
@@ -4669,18 +4169,14 @@
       </c>
       <c r="B127" t="inlineStr">
         <is>
-          <t>Achieved</t>
-        </is>
-      </c>
-      <c r="C127" t="inlineStr">
-        <is>
-          <t>33938.220999999998</t>
-        </is>
-      </c>
-      <c r="D127" t="inlineStr">
-        <is>
-          <t>509.23200000000003</t>
-        </is>
+          <t>on-track</t>
+        </is>
+      </c>
+      <c r="C127">
+        <v>33938.221</v>
+      </c>
+      <c r="D127">
+        <v>509.232</v>
       </c>
       <c r="E127" t="inlineStr">
         <is>
@@ -4708,18 +4204,14 @@
       </c>
       <c r="B128" t="inlineStr">
         <is>
-          <t>Acceleration Needed</t>
-        </is>
-      </c>
-      <c r="C128" t="inlineStr">
-        <is>
-          <t>32969.517999999996</t>
-        </is>
-      </c>
-      <c r="D128" t="inlineStr">
-        <is>
-          <t>1191.1469999999999</t>
-        </is>
+          <t>off-track</t>
+        </is>
+      </c>
+      <c r="C128">
+        <v>32969.518</v>
+      </c>
+      <c r="D128">
+        <v>1191.147</v>
       </c>
       <c r="E128" t="inlineStr">
         <is>
@@ -4741,18 +4233,14 @@
       </c>
       <c r="B129" t="inlineStr">
         <is>
-          <t>Acceleration Needed</t>
-        </is>
-      </c>
-      <c r="C129" t="inlineStr">
-        <is>
-          <t>54179.305999999997</t>
-        </is>
-      </c>
-      <c r="D129" t="inlineStr">
-        <is>
-          <t>912.25199999999995</t>
-        </is>
+          <t>off-track</t>
+        </is>
+      </c>
+      <c r="C129">
+        <v>54179.306</v>
+      </c>
+      <c r="D129">
+        <v>912.252</v>
       </c>
       <c r="E129" t="inlineStr">
         <is>
@@ -4768,18 +4256,14 @@
       </c>
       <c r="B130" t="inlineStr">
         <is>
-          <t>Acceleration Needed</t>
-        </is>
-      </c>
-      <c r="C130" t="inlineStr">
-        <is>
-          <t>2567.0120000000002</t>
-        </is>
-      </c>
-      <c r="D130" t="inlineStr">
-        <is>
-          <t>69.156999999999996</t>
-        </is>
+          <t>off-track</t>
+        </is>
+      </c>
+      <c r="C130">
+        <v>2567.012</v>
+      </c>
+      <c r="D130">
+        <v>69.157</v>
       </c>
       <c r="E130" t="inlineStr">
         <is>
@@ -4795,18 +4279,14 @@
       </c>
       <c r="B131" t="inlineStr">
         <is>
-          <t>Achieved</t>
-        </is>
-      </c>
-      <c r="C131" t="inlineStr">
-        <is>
-          <t>6948.3919999999998</t>
-        </is>
-      </c>
-      <c r="D131" t="inlineStr">
-        <is>
-          <t>139.16399999999999</t>
-        </is>
+          <t>on-track</t>
+        </is>
+      </c>
+      <c r="C131">
+        <v>6948.392</v>
+      </c>
+      <c r="D131">
+        <v>139.164</v>
       </c>
       <c r="E131" t="inlineStr">
         <is>
@@ -4822,18 +4302,14 @@
       </c>
       <c r="B132" t="inlineStr">
         <is>
-          <t>Achieved</t>
-        </is>
-      </c>
-      <c r="C132" t="inlineStr">
-        <is>
-          <t>1.9339999999999999</t>
-        </is>
-      </c>
-      <c r="D132" t="inlineStr">
-        <is>
-          <t>2.7E-2</t>
-        </is>
+          <t>on-track</t>
+        </is>
+      </c>
+      <c r="C132">
+        <v>1.934</v>
+      </c>
+      <c r="D132">
+        <v>0.027</v>
       </c>
       <c r="E132" t="inlineStr">
         <is>
@@ -4849,18 +4325,14 @@
       </c>
       <c r="B133" t="inlineStr">
         <is>
-          <t>Achieved</t>
-        </is>
-      </c>
-      <c r="C133" t="inlineStr">
-        <is>
-          <t>17564.013999999999</t>
-        </is>
-      </c>
-      <c r="D133" t="inlineStr">
-        <is>
-          <t>181.387</t>
-        </is>
+          <t>on-track</t>
+        </is>
+      </c>
+      <c r="C133">
+        <v>17564.014</v>
+      </c>
+      <c r="D133">
+        <v>181.387</v>
       </c>
       <c r="E133" t="inlineStr">
         <is>
@@ -4876,18 +4348,14 @@
       </c>
       <c r="B134" t="inlineStr">
         <is>
-          <t>Achieved</t>
-        </is>
-      </c>
-      <c r="C134" t="inlineStr">
-        <is>
-          <t>5434.3190000000004</t>
-        </is>
-      </c>
-      <c r="D134" t="inlineStr">
-        <is>
-          <t>53.988</t>
-        </is>
+          <t>on-track</t>
+        </is>
+      </c>
+      <c r="C134">
+        <v>5434.319</v>
+      </c>
+      <c r="D134">
+        <v>53.988</v>
       </c>
       <c r="E134" t="inlineStr">
         <is>
@@ -4909,18 +4377,14 @@
       </c>
       <c r="B135" t="inlineStr">
         <is>
-          <t>On Track</t>
-        </is>
-      </c>
-      <c r="C135" t="inlineStr">
-        <is>
-          <t>30547.58</t>
-        </is>
-      </c>
-      <c r="D135" t="inlineStr">
-        <is>
-          <t>616.65700000000004</t>
-        </is>
+          <t>on-track</t>
+        </is>
+      </c>
+      <c r="C135">
+        <v>30547.58</v>
+      </c>
+      <c r="D135">
+        <v>616.657</v>
       </c>
       <c r="E135" t="inlineStr">
         <is>
@@ -4948,18 +4412,14 @@
       </c>
       <c r="B136" t="inlineStr">
         <is>
-          <t>On Track</t>
-        </is>
-      </c>
-      <c r="C136" t="inlineStr">
-        <is>
-          <t>12.667999999999999</t>
-        </is>
-      </c>
-      <c r="D136" t="inlineStr">
-        <is>
-          <t>0.34100000000000003</t>
-        </is>
+          <t>on-track</t>
+        </is>
+      </c>
+      <c r="C136">
+        <v>12.668</v>
+      </c>
+      <c r="D136">
+        <v>0.341</v>
       </c>
       <c r="E136" t="inlineStr">
         <is>
@@ -4975,18 +4435,14 @@
       </c>
       <c r="B137" t="inlineStr">
         <is>
-          <t>Achieved</t>
-        </is>
-      </c>
-      <c r="C137" t="inlineStr">
-        <is>
-          <t>5185.2879999999996</t>
-        </is>
-      </c>
-      <c r="D137" t="inlineStr">
-        <is>
-          <t>64.102999999999994</t>
-        </is>
+          <t>on-track</t>
+        </is>
+      </c>
+      <c r="C137">
+        <v>5185.288</v>
+      </c>
+      <c r="D137">
+        <v>64.10299999999999</v>
       </c>
       <c r="E137" t="inlineStr">
         <is>
@@ -5008,18 +4464,14 @@
       </c>
       <c r="B138" t="inlineStr">
         <is>
-          <t>Achieved</t>
-        </is>
-      </c>
-      <c r="C138" t="inlineStr">
-        <is>
-          <t>4576.2979999999998</t>
-        </is>
-      </c>
-      <c r="D138" t="inlineStr">
-        <is>
-          <t>81.043000000000006</t>
-        </is>
+          <t>on-track</t>
+        </is>
+      </c>
+      <c r="C138">
+        <v>4576.298</v>
+      </c>
+      <c r="D138">
+        <v>81.04300000000001</v>
       </c>
       <c r="E138" t="inlineStr">
         <is>
@@ -5047,18 +4499,14 @@
       </c>
       <c r="B139" t="inlineStr">
         <is>
-          <t>Acceleration Needed</t>
-        </is>
-      </c>
-      <c r="C139" t="inlineStr">
-        <is>
-          <t>26207.976999999999</t>
-        </is>
-      </c>
-      <c r="D139" t="inlineStr">
-        <is>
-          <t>1180.654</t>
-        </is>
+          <t>off-track</t>
+        </is>
+      </c>
+      <c r="C139">
+        <v>26207.977</v>
+      </c>
+      <c r="D139">
+        <v>1180.654</v>
       </c>
       <c r="E139" t="inlineStr">
         <is>
@@ -5086,18 +4534,14 @@
       </c>
       <c r="B140" t="inlineStr">
         <is>
-          <t>Achieved</t>
-        </is>
-      </c>
-      <c r="C140" t="inlineStr">
-        <is>
-          <t>4408.5810000000001</t>
-        </is>
-      </c>
-      <c r="D140" t="inlineStr">
-        <is>
-          <t>76.637</t>
-        </is>
+          <t>on-track</t>
+        </is>
+      </c>
+      <c r="C140">
+        <v>4408.581</v>
+      </c>
+      <c r="D140">
+        <v>76.637</v>
       </c>
       <c r="E140" t="inlineStr">
         <is>
@@ -5119,18 +4563,14 @@
       </c>
       <c r="B141" t="inlineStr">
         <is>
-          <t>Achieved</t>
-        </is>
-      </c>
-      <c r="C141" t="inlineStr">
-        <is>
-          <t>34049.588000000003</t>
-        </is>
-      </c>
-      <c r="D141" t="inlineStr">
-        <is>
-          <t>592.15599999999995</t>
-        </is>
+          <t>on-track</t>
+        </is>
+      </c>
+      <c r="C141">
+        <v>34049.588</v>
+      </c>
+      <c r="D141">
+        <v>592.1559999999999</v>
       </c>
       <c r="E141" t="inlineStr">
         <is>
@@ -5158,18 +4598,14 @@
       </c>
       <c r="B142" t="inlineStr">
         <is>
-          <t>Acceleration Needed</t>
-        </is>
-      </c>
-      <c r="C142" t="inlineStr">
-        <is>
-          <t>115559.00900000001</t>
-        </is>
-      </c>
-      <c r="D142" t="inlineStr">
-        <is>
-          <t>2499.0810000000001</t>
-        </is>
+          <t>off-track</t>
+        </is>
+      </c>
+      <c r="C142">
+        <v>115559.009</v>
+      </c>
+      <c r="D142">
+        <v>2499.081</v>
       </c>
       <c r="E142" t="inlineStr">
         <is>
@@ -5197,18 +4633,14 @@
       </c>
       <c r="B143" t="inlineStr">
         <is>
-          <t>Achieved</t>
-        </is>
-      </c>
-      <c r="C143" t="inlineStr">
-        <is>
-          <t>18.055</t>
-        </is>
-      </c>
-      <c r="D143" t="inlineStr">
-        <is>
-          <t>0.27</t>
-        </is>
+          <t>on-track</t>
+        </is>
+      </c>
+      <c r="C143">
+        <v>18.055</v>
+      </c>
+      <c r="D143">
+        <v>0.27</v>
       </c>
       <c r="E143" t="inlineStr">
         <is>
@@ -5230,18 +4662,14 @@
       </c>
       <c r="B144" t="inlineStr">
         <is>
-          <t>Acceleration Needed</t>
-        </is>
-      </c>
-      <c r="C144" t="inlineStr">
-        <is>
-          <t>218541.212</t>
-        </is>
-      </c>
-      <c r="D144" t="inlineStr">
-        <is>
-          <t>8002.7579999999998</t>
-        </is>
+          <t>off-track</t>
+        </is>
+      </c>
+      <c r="C144">
+        <v>218541.212</v>
+      </c>
+      <c r="D144">
+        <v>8002.758</v>
       </c>
       <c r="E144" t="inlineStr">
         <is>
@@ -5269,18 +4697,14 @@
       </c>
       <c r="B145" t="inlineStr">
         <is>
-          <t>Achieved</t>
-        </is>
-      </c>
-      <c r="C145" t="inlineStr">
-        <is>
-          <t>39857.144999999997</t>
-        </is>
-      </c>
-      <c r="D145" t="inlineStr">
-        <is>
-          <t>353.84</t>
-        </is>
+          <t>on-track</t>
+        </is>
+      </c>
+      <c r="C145">
+        <v>39857.145</v>
+      </c>
+      <c r="D145">
+        <v>353.84</v>
       </c>
       <c r="E145" t="inlineStr">
         <is>
@@ -5302,18 +4726,14 @@
       </c>
       <c r="B146" t="inlineStr">
         <is>
-          <t>Achieved</t>
-        </is>
-      </c>
-      <c r="C146" t="inlineStr">
-        <is>
-          <t>26069.416000000001</t>
-        </is>
-      </c>
-      <c r="D146" t="inlineStr">
-        <is>
-          <t>340.40699999999998</t>
-        </is>
+          <t>on-track</t>
+        </is>
+      </c>
+      <c r="C146">
+        <v>26069.416</v>
+      </c>
+      <c r="D146">
+        <v>340.407</v>
       </c>
       <c r="E146" t="inlineStr">
         <is>
@@ -5329,18 +4749,14 @@
       </c>
       <c r="B147" t="inlineStr">
         <is>
-          <t>Achieved</t>
-        </is>
-      </c>
-      <c r="C147" t="inlineStr">
-        <is>
-          <t>10270.865</t>
-        </is>
-      </c>
-      <c r="D147" t="inlineStr">
-        <is>
-          <t>80.033000000000001</t>
-        </is>
+          <t>on-track</t>
+        </is>
+      </c>
+      <c r="C147">
+        <v>10270.865</v>
+      </c>
+      <c r="D147">
+        <v>80.033</v>
       </c>
       <c r="E147" t="inlineStr">
         <is>
@@ -5362,18 +4778,14 @@
       </c>
       <c r="B148" t="inlineStr">
         <is>
-          <t>Achieved</t>
-        </is>
-      </c>
-      <c r="C148" t="inlineStr">
-        <is>
-          <t>6780.7439999999997</t>
-        </is>
-      </c>
-      <c r="D148" t="inlineStr">
-        <is>
-          <t>137.96</t>
-        </is>
+          <t>on-track</t>
+        </is>
+      </c>
+      <c r="C148">
+        <v>6780.744</v>
+      </c>
+      <c r="D148">
+        <v>137.96</v>
       </c>
       <c r="E148" t="inlineStr">
         <is>
@@ -5401,18 +4813,14 @@
       </c>
       <c r="B149" t="inlineStr">
         <is>
-          <t>Achieved</t>
-        </is>
-      </c>
-      <c r="C149" t="inlineStr">
-        <is>
-          <t>5250.0720000000001</t>
-        </is>
-      </c>
-      <c r="D149" t="inlineStr">
-        <is>
-          <t>145.44900000000001</t>
-        </is>
+          <t>on-track</t>
+        </is>
+      </c>
+      <c r="C149">
+        <v>5250.072</v>
+      </c>
+      <c r="D149">
+        <v>145.449</v>
       </c>
       <c r="E149" t="inlineStr">
         <is>
@@ -5440,18 +4848,14 @@
       </c>
       <c r="B150" t="inlineStr">
         <is>
-          <t>Achieved</t>
-        </is>
-      </c>
-      <c r="C150" t="inlineStr">
-        <is>
-          <t>2695.1219999999998</t>
-        </is>
-      </c>
-      <c r="D150" t="inlineStr">
-        <is>
-          <t>24.497</t>
-        </is>
+          <t>on-track</t>
+        </is>
+      </c>
+      <c r="C150">
+        <v>2695.122</v>
+      </c>
+      <c r="D150">
+        <v>24.497</v>
       </c>
       <c r="E150" t="inlineStr">
         <is>
@@ -5468,13 +4872,30 @@
     <row r="151">
       <c r="A151" t="inlineStr">
         <is>
-          <t>RKS</t>
+          <t>XKX</t>
         </is>
       </c>
       <c r="B151" t="inlineStr">
         <is>
-          <t>Achieved</t>
-        </is>
+          <t>on-track</t>
+        </is>
+      </c>
+      <c r="C151">
+        <v>1659.714</v>
+      </c>
+      <c r="D151">
+        <v>18.397</v>
+      </c>
+      <c r="E151" t="inlineStr">
+        <is>
+          <t>Kosovo (under UNSC res. 1244)</t>
+        </is>
+      </c>
+      <c r="F151">
+        <v>2020</v>
+      </c>
+      <c r="G151">
+        <v>94.40000000000001</v>
       </c>
     </row>
     <row r="152">
@@ -5485,18 +4906,14 @@
       </c>
       <c r="B152" t="inlineStr">
         <is>
-          <t>Achieved</t>
-        </is>
-      </c>
-      <c r="C152" t="inlineStr">
-        <is>
-          <t>19659.267</t>
-        </is>
-      </c>
-      <c r="D152" t="inlineStr">
-        <is>
-          <t>191.76300000000001</t>
-        </is>
+          <t>on-track</t>
+        </is>
+      </c>
+      <c r="C152">
+        <v>19659.267</v>
+      </c>
+      <c r="D152">
+        <v>191.763</v>
       </c>
       <c r="E152" t="inlineStr">
         <is>
@@ -5524,18 +4941,14 @@
       </c>
       <c r="B153" t="inlineStr">
         <is>
-          <t>Achieved</t>
-        </is>
-      </c>
-      <c r="C153" t="inlineStr">
-        <is>
-          <t>144713.31400000001</t>
-        </is>
-      </c>
-      <c r="D153" t="inlineStr">
-        <is>
-          <t>1375.808</t>
-        </is>
+          <t>on-track</t>
+        </is>
+      </c>
+      <c r="C153">
+        <v>144713.314</v>
+      </c>
+      <c r="D153">
+        <v>1375.808</v>
       </c>
       <c r="E153" t="inlineStr">
         <is>
@@ -5557,18 +4970,14 @@
       </c>
       <c r="B154" t="inlineStr">
         <is>
-          <t>Acceleration Needed</t>
-        </is>
-      </c>
-      <c r="C154" t="inlineStr">
-        <is>
-          <t>235824.86199999999</t>
-        </is>
-      </c>
-      <c r="D154" t="inlineStr">
-        <is>
-          <t>6424.9440000000004</t>
-        </is>
+          <t>off-track</t>
+        </is>
+      </c>
+      <c r="C154">
+        <v>235824.862</v>
+      </c>
+      <c r="D154">
+        <v>6424.944</v>
       </c>
       <c r="E154" t="inlineStr">
         <is>
@@ -5596,18 +5005,14 @@
       </c>
       <c r="B155" t="inlineStr">
         <is>
-          <t>Achieved</t>
-        </is>
-      </c>
-      <c r="C155" t="inlineStr">
-        <is>
-          <t>36408.82</t>
-        </is>
-      </c>
-      <c r="D155" t="inlineStr">
-        <is>
-          <t>615.69000000000005</t>
-        </is>
+          <t>on-track</t>
+        </is>
+      </c>
+      <c r="C155">
+        <v>36408.82</v>
+      </c>
+      <c r="D155">
+        <v>615.6900000000001</v>
       </c>
       <c r="E155" t="inlineStr">
         <is>
@@ -5635,18 +5040,14 @@
       </c>
       <c r="B156" t="inlineStr">
         <is>
-          <t>Acceleration Needed</t>
-        </is>
-      </c>
-      <c r="C156" t="inlineStr">
-        <is>
-          <t>10142.619000000001</t>
-        </is>
-      </c>
-      <c r="D156" t="inlineStr">
-        <is>
-          <t>254.71799999999999</t>
-        </is>
+          <t>off-track</t>
+        </is>
+      </c>
+      <c r="C156">
+        <v>10142.619</v>
+      </c>
+      <c r="D156">
+        <v>254.718</v>
       </c>
       <c r="E156" t="inlineStr">
         <is>
@@ -5674,18 +5075,14 @@
       </c>
       <c r="B157" t="inlineStr">
         <is>
-          <t>Acceleration Needed</t>
-        </is>
-      </c>
-      <c r="C157" t="inlineStr">
-        <is>
-          <t>17316.449000000001</t>
-        </is>
-      </c>
-      <c r="D157" t="inlineStr">
-        <is>
-          <t>555.69600000000003</t>
-        </is>
+          <t>off-track</t>
+        </is>
+      </c>
+      <c r="C157">
+        <v>17316.449</v>
+      </c>
+      <c r="D157">
+        <v>555.696</v>
       </c>
       <c r="E157" t="inlineStr">
         <is>
@@ -5713,18 +5110,14 @@
       </c>
       <c r="B158" t="inlineStr">
         <is>
-          <t>Achieved</t>
-        </is>
-      </c>
-      <c r="C158" t="inlineStr">
-        <is>
-          <t>5975.6890000000003</t>
-        </is>
-      </c>
-      <c r="D158" t="inlineStr">
-        <is>
-          <t>42.332999999999998</t>
-        </is>
+          <t>on-track</t>
+        </is>
+      </c>
+      <c r="C158">
+        <v>5975.689</v>
+      </c>
+      <c r="D158">
+        <v>42.333</v>
       </c>
       <c r="E158" t="inlineStr">
         <is>
@@ -5746,18 +5139,14 @@
       </c>
       <c r="B159" t="inlineStr">
         <is>
-          <t>Achieved</t>
-        </is>
-      </c>
-      <c r="C159" t="inlineStr">
-        <is>
-          <t>724.27300000000002</t>
-        </is>
-      </c>
-      <c r="D159" t="inlineStr">
-        <is>
-          <t>21.262</t>
-        </is>
+          <t>on-track</t>
+        </is>
+      </c>
+      <c r="C159">
+        <v>724.273</v>
+      </c>
+      <c r="D159">
+        <v>21.262</v>
       </c>
       <c r="E159" t="inlineStr">
         <is>
@@ -5773,18 +5162,14 @@
       </c>
       <c r="B160" t="inlineStr">
         <is>
-          <t>Acceleration Needed</t>
-        </is>
-      </c>
-      <c r="C160" t="inlineStr">
-        <is>
-          <t>13776.698</t>
-        </is>
-      </c>
-      <c r="D160" t="inlineStr">
-        <is>
-          <t>406.214</t>
-        </is>
+          <t>off-track</t>
+        </is>
+      </c>
+      <c r="C160">
+        <v>13776.698</v>
+      </c>
+      <c r="D160">
+        <v>406.214</v>
       </c>
       <c r="E160" t="inlineStr">
         <is>
@@ -5812,18 +5197,14 @@
       </c>
       <c r="B161" t="inlineStr">
         <is>
-          <t>Achieved</t>
-        </is>
-      </c>
-      <c r="C161" t="inlineStr">
-        <is>
-          <t>6336.3919999999998</t>
-        </is>
-      </c>
-      <c r="D161" t="inlineStr">
-        <is>
-          <t>100.313</t>
-        </is>
+          <t>on-track</t>
+        </is>
+      </c>
+      <c r="C161">
+        <v>6336.392</v>
+      </c>
+      <c r="D161">
+        <v>100.313</v>
       </c>
       <c r="E161" t="inlineStr">
         <is>
@@ -5845,18 +5226,14 @@
       </c>
       <c r="B162" t="inlineStr">
         <is>
-          <t>Achieved</t>
-        </is>
-      </c>
-      <c r="C162" t="inlineStr">
-        <is>
-          <t>33.659999999999997</t>
-        </is>
-      </c>
-      <c r="D162" t="inlineStr">
-        <is>
-          <t>0.2</t>
-        </is>
+          <t>on-track</t>
+        </is>
+      </c>
+      <c r="C162">
+        <v>33.66</v>
+      </c>
+      <c r="D162">
+        <v>0.2</v>
       </c>
       <c r="E162" t="inlineStr">
         <is>
@@ -5872,18 +5249,14 @@
       </c>
       <c r="B163" t="inlineStr">
         <is>
-          <t>Acceleration Needed</t>
-        </is>
-      </c>
-      <c r="C163" t="inlineStr">
-        <is>
-          <t>8605.7180000000008</t>
-        </is>
-      </c>
-      <c r="D163" t="inlineStr">
-        <is>
-          <t>265.02300000000002</t>
-        </is>
+          <t>off-track</t>
+        </is>
+      </c>
+      <c r="C163">
+        <v>8605.718000000001</v>
+      </c>
+      <c r="D163">
+        <v>265.023</v>
       </c>
       <c r="E163" t="inlineStr">
         <is>
@@ -5911,18 +5284,14 @@
       </c>
       <c r="B164" t="inlineStr">
         <is>
-          <t>Achieved</t>
-        </is>
-      </c>
-      <c r="C164" t="inlineStr">
-        <is>
-          <t>7221.3649999999998</t>
-        </is>
-      </c>
-      <c r="D164" t="inlineStr">
-        <is>
-          <t>66.557000000000002</t>
-        </is>
+          <t>on-track</t>
+        </is>
+      </c>
+      <c r="C164">
+        <v>7221.365</v>
+      </c>
+      <c r="D164">
+        <v>66.557</v>
       </c>
       <c r="E164" t="inlineStr">
         <is>
@@ -5950,18 +5319,14 @@
       </c>
       <c r="B165" t="inlineStr">
         <is>
-          <t>Acceleration Needed</t>
-        </is>
-      </c>
-      <c r="C165" t="inlineStr">
-        <is>
-          <t>17597.510999999999</t>
-        </is>
-      </c>
-      <c r="D165" t="inlineStr">
-        <is>
-          <t>759.04399999999998</t>
-        </is>
+          <t>off-track</t>
+        </is>
+      </c>
+      <c r="C165">
+        <v>17597.511</v>
+      </c>
+      <c r="D165">
+        <v>759.044</v>
       </c>
       <c r="E165" t="inlineStr">
         <is>
@@ -5989,18 +5354,14 @@
       </c>
       <c r="B166" t="inlineStr">
         <is>
-          <t>Achieved</t>
-        </is>
-      </c>
-      <c r="C166" t="inlineStr">
-        <is>
-          <t>227.38</t>
-        </is>
-      </c>
-      <c r="D166" t="inlineStr">
-        <is>
-          <t>6.37</t>
-        </is>
+          <t>on-track</t>
+        </is>
+      </c>
+      <c r="C166">
+        <v>227.38</v>
+      </c>
+      <c r="D166">
+        <v>6.37</v>
       </c>
       <c r="E166" t="inlineStr">
         <is>
@@ -6022,18 +5383,14 @@
       </c>
       <c r="B167" t="inlineStr">
         <is>
-          <t>Achieved</t>
-        </is>
-      </c>
-      <c r="C167" t="inlineStr">
-        <is>
-          <t>618.04</t>
-        </is>
-      </c>
-      <c r="D167" t="inlineStr">
-        <is>
-          <t>11.122999999999999</t>
-        </is>
+          <t>on-track</t>
+        </is>
+      </c>
+      <c r="C167">
+        <v>618.04</v>
+      </c>
+      <c r="D167">
+        <v>11.123</v>
       </c>
       <c r="E167" t="inlineStr">
         <is>
@@ -6061,18 +5418,14 @@
       </c>
       <c r="B168" t="inlineStr">
         <is>
-          <t>Achieved</t>
-        </is>
-      </c>
-      <c r="C168" t="inlineStr">
-        <is>
-          <t>5643.4530000000004</t>
-        </is>
-      </c>
-      <c r="D168" t="inlineStr">
-        <is>
-          <t>53.356999999999999</t>
-        </is>
+          <t>on-track</t>
+        </is>
+      </c>
+      <c r="C168">
+        <v>5643.453</v>
+      </c>
+      <c r="D168">
+        <v>53.357</v>
       </c>
       <c r="E168" t="inlineStr">
         <is>
@@ -6094,18 +5447,14 @@
       </c>
       <c r="B169" t="inlineStr">
         <is>
-          <t>Achieved</t>
-        </is>
-      </c>
-      <c r="C169" t="inlineStr">
-        <is>
-          <t>2119.8440000000001</t>
-        </is>
-      </c>
-      <c r="D169" t="inlineStr">
-        <is>
-          <t>18.835999999999999</t>
-        </is>
+          <t>on-track</t>
+        </is>
+      </c>
+      <c r="C169">
+        <v>2119.844</v>
+      </c>
+      <c r="D169">
+        <v>18.836</v>
       </c>
       <c r="E169" t="inlineStr">
         <is>
@@ -6121,18 +5470,14 @@
       </c>
       <c r="B170" t="inlineStr">
         <is>
-          <t>Achieved</t>
-        </is>
-      </c>
-      <c r="C170" t="inlineStr">
-        <is>
-          <t>10549.347</t>
-        </is>
-      </c>
-      <c r="D170" t="inlineStr">
-        <is>
-          <t>114.08</t>
-        </is>
+          <t>on-track</t>
+        </is>
+      </c>
+      <c r="C170">
+        <v>10549.347</v>
+      </c>
+      <c r="D170">
+        <v>114.08</v>
       </c>
       <c r="E170" t="inlineStr">
         <is>
@@ -6148,18 +5493,14 @@
       </c>
       <c r="B171" t="inlineStr">
         <is>
-          <t>Acceleration Needed</t>
-        </is>
-      </c>
-      <c r="C171" t="inlineStr">
-        <is>
-          <t>59893.885000000002</t>
-        </is>
-      </c>
-      <c r="D171" t="inlineStr">
-        <is>
-          <t>1155.8579999999999</t>
-        </is>
+          <t>off-track</t>
+        </is>
+      </c>
+      <c r="C171">
+        <v>59893.885</v>
+      </c>
+      <c r="D171">
+        <v>1155.858</v>
       </c>
       <c r="E171" t="inlineStr">
         <is>
@@ -6175,18 +5516,14 @@
       </c>
       <c r="B172" t="inlineStr">
         <is>
-          <t>Achieved</t>
-        </is>
-      </c>
-      <c r="C172" t="inlineStr">
-        <is>
-          <t>107.11799999999999</t>
-        </is>
-      </c>
-      <c r="D172" t="inlineStr">
-        <is>
-          <t>1.611</t>
-        </is>
+          <t>on-track</t>
+        </is>
+      </c>
+      <c r="C172">
+        <v>107.118</v>
+      </c>
+      <c r="D172">
+        <v>1.611</v>
       </c>
       <c r="E172" t="inlineStr">
         <is>
@@ -6208,18 +5545,14 @@
       </c>
       <c r="B173" t="inlineStr">
         <is>
-          <t>Achieved</t>
-        </is>
-      </c>
-      <c r="C173" t="inlineStr">
-        <is>
-          <t>22125.249</t>
-        </is>
-      </c>
-      <c r="D173" t="inlineStr">
-        <is>
-          <t>446.85899999999998</t>
-        </is>
+          <t>on-track</t>
+        </is>
+      </c>
+      <c r="C173">
+        <v>22125.249</v>
+      </c>
+      <c r="D173">
+        <v>446.859</v>
       </c>
       <c r="E173" t="inlineStr">
         <is>
@@ -6235,18 +5568,14 @@
       </c>
       <c r="B174" t="inlineStr">
         <is>
-          <t>Achieved</t>
-        </is>
-      </c>
-      <c r="C174" t="inlineStr">
-        <is>
-          <t>45.703000000000003</t>
-        </is>
-      </c>
-      <c r="D174" t="inlineStr">
-        <is>
-          <t>0.56000000000000005</t>
-        </is>
+          <t>on-track</t>
+        </is>
+      </c>
+      <c r="C174">
+        <v>45.703</v>
+      </c>
+      <c r="D174">
+        <v>0.5600000000000001</v>
       </c>
       <c r="E174" t="inlineStr">
         <is>
@@ -6274,18 +5603,14 @@
       </c>
       <c r="B175" t="inlineStr">
         <is>
-          <t>Acceleration Needed</t>
-        </is>
-      </c>
-      <c r="C175" t="inlineStr">
-        <is>
-          <t>10913.164000000001</t>
-        </is>
-      </c>
-      <c r="D175" t="inlineStr">
-        <is>
-          <t>315.39</t>
-        </is>
+          <t>off-track</t>
+        </is>
+      </c>
+      <c r="C175">
+        <v>10913.164</v>
+      </c>
+      <c r="D175">
+        <v>315.39</v>
       </c>
       <c r="E175" t="inlineStr">
         <is>
@@ -6313,18 +5638,14 @@
       </c>
       <c r="B176" t="inlineStr">
         <is>
-          <t>Acceleration Needed</t>
-        </is>
-      </c>
-      <c r="C176" t="inlineStr">
-        <is>
-          <t>46874.203999999998</t>
-        </is>
-      </c>
-      <c r="D176" t="inlineStr">
-        <is>
-          <t>1548.473</t>
-        </is>
+          <t>off-track</t>
+        </is>
+      </c>
+      <c r="C176">
+        <v>46874.204</v>
+      </c>
+      <c r="D176">
+        <v>1548.473</v>
       </c>
       <c r="E176" t="inlineStr">
         <is>
@@ -6340,18 +5661,14 @@
       </c>
       <c r="B177" t="inlineStr">
         <is>
-          <t>Achieved</t>
-        </is>
-      </c>
-      <c r="C177" t="inlineStr">
-        <is>
-          <t>71697.03</t>
-        </is>
-      </c>
-      <c r="D177" t="inlineStr">
-        <is>
-          <t>631.23900000000003</t>
-        </is>
+          <t>on-track</t>
+        </is>
+      </c>
+      <c r="C177">
+        <v>71697.03</v>
+      </c>
+      <c r="D177">
+        <v>631.239</v>
       </c>
       <c r="E177" t="inlineStr">
         <is>
@@ -6379,18 +5696,14 @@
       </c>
       <c r="B178" t="inlineStr">
         <is>
-          <t>On Track</t>
-        </is>
-      </c>
-      <c r="C178" t="inlineStr">
-        <is>
-          <t>9952.7870000000003</t>
-        </is>
-      </c>
-      <c r="D178" t="inlineStr">
-        <is>
-          <t>259.27600000000001</t>
-        </is>
+          <t>on-track</t>
+        </is>
+      </c>
+      <c r="C178">
+        <v>9952.787</v>
+      </c>
+      <c r="D178">
+        <v>259.276</v>
       </c>
       <c r="E178" t="inlineStr">
         <is>
@@ -6406,18 +5719,14 @@
       </c>
       <c r="B179" t="inlineStr">
         <is>
-          <t>Acceleration Needed</t>
-        </is>
-      </c>
-      <c r="C179" t="inlineStr">
-        <is>
-          <t>1341.296</t>
-        </is>
-      </c>
-      <c r="D179" t="inlineStr">
-        <is>
-          <t>33.073999999999998</t>
-        </is>
+          <t>off-track</t>
+        </is>
+      </c>
+      <c r="C179">
+        <v>1341.296</v>
+      </c>
+      <c r="D179">
+        <v>33.074</v>
       </c>
       <c r="E179" t="inlineStr">
         <is>
@@ -6439,18 +5748,14 @@
       </c>
       <c r="B180" t="inlineStr">
         <is>
-          <t>Acceleration Needed</t>
-        </is>
-      </c>
-      <c r="C180" t="inlineStr">
-        <is>
-          <t>8848.6990000000005</t>
-        </is>
-      </c>
-      <c r="D180" t="inlineStr">
-        <is>
-          <t>278.61799999999999</t>
-        </is>
+          <t>off-track</t>
+        </is>
+      </c>
+      <c r="C180">
+        <v>8848.699000000001</v>
+      </c>
+      <c r="D180">
+        <v>278.618</v>
       </c>
       <c r="E180" t="inlineStr">
         <is>
@@ -6466,18 +5771,14 @@
       </c>
       <c r="B181" t="inlineStr">
         <is>
-          <t>Achieved</t>
-        </is>
-      </c>
-      <c r="C181" t="inlineStr">
-        <is>
-          <t>106.858</t>
-        </is>
-      </c>
-      <c r="D181" t="inlineStr">
-        <is>
-          <t>2.456</t>
-        </is>
+          <t>on-track</t>
+        </is>
+      </c>
+      <c r="C181">
+        <v>106.858</v>
+      </c>
+      <c r="D181">
+        <v>2.456</v>
       </c>
       <c r="E181" t="inlineStr">
         <is>
@@ -6505,18 +5806,14 @@
       </c>
       <c r="B182" t="inlineStr">
         <is>
-          <t>Achieved</t>
-        </is>
-      </c>
-      <c r="C182" t="inlineStr">
-        <is>
-          <t>1531.0440000000001</t>
-        </is>
-      </c>
-      <c r="D182" t="inlineStr">
-        <is>
-          <t>17.428999999999998</t>
-        </is>
+          <t>on-track</t>
+        </is>
+      </c>
+      <c r="C182">
+        <v>1531.044</v>
+      </c>
+      <c r="D182">
+        <v>17.429</v>
       </c>
       <c r="E182" t="inlineStr">
         <is>
@@ -6532,18 +5829,14 @@
       </c>
       <c r="B183" t="inlineStr">
         <is>
-          <t>Achieved</t>
-        </is>
-      </c>
-      <c r="C183" t="inlineStr">
-        <is>
-          <t>12356.117</t>
-        </is>
-      </c>
-      <c r="D183" t="inlineStr">
-        <is>
-          <t>192.75899999999999</t>
-        </is>
+          <t>on-track</t>
+        </is>
+      </c>
+      <c r="C183">
+        <v>12356.117</v>
+      </c>
+      <c r="D183">
+        <v>192.759</v>
       </c>
       <c r="E183" t="inlineStr">
         <is>
@@ -6571,18 +5864,14 @@
       </c>
       <c r="B184" t="inlineStr">
         <is>
-          <t>Achieved</t>
-        </is>
-      </c>
-      <c r="C184" t="inlineStr">
-        <is>
-          <t>85341.240999999995</t>
-        </is>
-      </c>
-      <c r="D184" t="inlineStr">
-        <is>
-          <t>1236.9000000000001</t>
-        </is>
+          <t>on-track</t>
+        </is>
+      </c>
+      <c r="C184">
+        <v>85341.24099999999</v>
+      </c>
+      <c r="D184">
+        <v>1236.9</v>
       </c>
       <c r="E184" t="inlineStr">
         <is>
@@ -6610,18 +5899,14 @@
       </c>
       <c r="B185" t="inlineStr">
         <is>
-          <t>Achieved</t>
-        </is>
-      </c>
-      <c r="C185" t="inlineStr">
-        <is>
-          <t>11.311999999999999</t>
-        </is>
-      </c>
-      <c r="D185" t="inlineStr">
-        <is>
-          <t>0.26500000000000001</t>
-        </is>
+          <t>on-track</t>
+        </is>
+      </c>
+      <c r="C185">
+        <v>11.312</v>
+      </c>
+      <c r="D185">
+        <v>0.265</v>
       </c>
       <c r="E185" t="inlineStr">
         <is>
@@ -6649,18 +5934,14 @@
       </c>
       <c r="B186" t="inlineStr">
         <is>
-          <t>Acceleration Needed</t>
-        </is>
-      </c>
-      <c r="C186" t="inlineStr">
-        <is>
-          <t>65497.748</t>
-        </is>
-      </c>
-      <c r="D186" t="inlineStr">
-        <is>
-          <t>2346.8209999999999</t>
-        </is>
+          <t>off-track</t>
+        </is>
+      </c>
+      <c r="C186">
+        <v>65497.748</v>
+      </c>
+      <c r="D186">
+        <v>2346.821</v>
       </c>
       <c r="E186" t="inlineStr">
         <is>
@@ -6688,18 +5969,14 @@
       </c>
       <c r="B187" t="inlineStr">
         <is>
-          <t>Acceleration Needed</t>
-        </is>
-      </c>
-      <c r="C187" t="inlineStr">
-        <is>
-          <t>6430.77</t>
-        </is>
-      </c>
-      <c r="D187" t="inlineStr">
-        <is>
-          <t>133.49100000000001</t>
-        </is>
+          <t>off-track</t>
+        </is>
+      </c>
+      <c r="C187">
+        <v>6430.77</v>
+      </c>
+      <c r="D187">
+        <v>133.491</v>
       </c>
       <c r="E187" t="inlineStr">
         <is>
@@ -6727,18 +6004,14 @@
       </c>
       <c r="B188" t="inlineStr">
         <is>
-          <t>Achieved</t>
-        </is>
-      </c>
-      <c r="C188" t="inlineStr">
-        <is>
-          <t>39701.739000000001</t>
-        </is>
-      </c>
-      <c r="D188" t="inlineStr">
-        <is>
-          <t>329.61799999999999</t>
-        </is>
+          <t>on-track</t>
+        </is>
+      </c>
+      <c r="C188">
+        <v>39701.739</v>
+      </c>
+      <c r="D188">
+        <v>329.618</v>
       </c>
       <c r="E188" t="inlineStr">
         <is>
@@ -6754,18 +6027,14 @@
       </c>
       <c r="B189" t="inlineStr">
         <is>
-          <t>Achieved</t>
-        </is>
-      </c>
-      <c r="C189" t="inlineStr">
-        <is>
-          <t>3422.7939999999999</t>
-        </is>
-      </c>
-      <c r="D189" t="inlineStr">
-        <is>
-          <t>35.667999999999999</t>
-        </is>
+          <t>on-track</t>
+        </is>
+      </c>
+      <c r="C189">
+        <v>3422.794</v>
+      </c>
+      <c r="D189">
+        <v>35.668</v>
       </c>
       <c r="E189" t="inlineStr">
         <is>
@@ -6793,18 +6062,14 @@
       </c>
       <c r="B190" t="inlineStr">
         <is>
-          <t>Achieved</t>
-        </is>
-      </c>
-      <c r="C190" t="inlineStr">
-        <is>
-          <t>338289.85700000002</t>
-        </is>
-      </c>
-      <c r="D190" t="inlineStr">
-        <is>
-          <t>3726.8670000000002</t>
-        </is>
+          <t>on-track</t>
+        </is>
+      </c>
+      <c r="C190">
+        <v>338289.857</v>
+      </c>
+      <c r="D190">
+        <v>3726.867</v>
       </c>
       <c r="E190" t="inlineStr">
         <is>
@@ -6826,18 +6091,14 @@
       </c>
       <c r="B191" t="inlineStr">
         <is>
-          <t>Achieved</t>
-        </is>
-      </c>
-      <c r="C191" t="inlineStr">
-        <is>
-          <t>34627.652000000002</t>
-        </is>
-      </c>
-      <c r="D191" t="inlineStr">
-        <is>
-          <t>776.81500000000005</t>
-        </is>
+          <t>on-track</t>
+        </is>
+      </c>
+      <c r="C191">
+        <v>34627.652</v>
+      </c>
+      <c r="D191">
+        <v>776.8150000000001</v>
       </c>
       <c r="E191" t="inlineStr">
         <is>
@@ -6865,18 +6126,14 @@
       </c>
       <c r="B192" t="inlineStr">
         <is>
-          <t>Achieved</t>
-        </is>
-      </c>
-      <c r="C192" t="inlineStr">
-        <is>
-          <t>103.94799999999999</t>
-        </is>
-      </c>
-      <c r="D192" t="inlineStr">
-        <is>
-          <t>1.3240000000000001</t>
-        </is>
+          <t>on-track</t>
+        </is>
+      </c>
+      <c r="C192">
+        <v>103.948</v>
+      </c>
+      <c r="D192">
+        <v>1.324</v>
       </c>
       <c r="E192" t="inlineStr">
         <is>
@@ -6898,18 +6155,14 @@
       </c>
       <c r="B193" t="inlineStr">
         <is>
-          <t>Achieved</t>
-        </is>
-      </c>
-      <c r="C193" t="inlineStr">
-        <is>
-          <t>28301.696</t>
-        </is>
-      </c>
-      <c r="D193" t="inlineStr">
-        <is>
-          <t>438.38400000000001</t>
-        </is>
+          <t>on-track</t>
+        </is>
+      </c>
+      <c r="C193">
+        <v>28301.696</v>
+      </c>
+      <c r="D193">
+        <v>438.384</v>
       </c>
       <c r="E193" t="inlineStr">
         <is>
@@ -6931,18 +6184,14 @@
       </c>
       <c r="B194" t="inlineStr">
         <is>
-          <t>Achieved</t>
-        </is>
-      </c>
-      <c r="C194" t="inlineStr">
-        <is>
-          <t>31.305</t>
-        </is>
-      </c>
-      <c r="D194" t="inlineStr">
-        <is>
-          <t>0.23799999999999999</t>
-        </is>
+          <t>on-track</t>
+        </is>
+      </c>
+      <c r="C194">
+        <v>31.305</v>
+      </c>
+      <c r="D194">
+        <v>0.238</v>
       </c>
       <c r="E194" t="inlineStr">
         <is>
@@ -6958,18 +6207,14 @@
       </c>
       <c r="B195" t="inlineStr">
         <is>
-          <t>Achieved</t>
-        </is>
-      </c>
-      <c r="C195" t="inlineStr">
-        <is>
-          <t>98186.856</t>
-        </is>
-      </c>
-      <c r="D195" t="inlineStr">
-        <is>
-          <t>1442.809</t>
-        </is>
+          <t>on-track</t>
+        </is>
+      </c>
+      <c r="C195">
+        <v>98186.856</v>
+      </c>
+      <c r="D195">
+        <v>1442.809</v>
       </c>
       <c r="E195" t="inlineStr">
         <is>
@@ -6997,18 +6242,14 @@
       </c>
       <c r="B196" t="inlineStr">
         <is>
-          <t>Achieved</t>
-        </is>
-      </c>
-      <c r="C196" t="inlineStr">
-        <is>
-          <t>326.74</t>
-        </is>
-      </c>
-      <c r="D196" t="inlineStr">
-        <is>
-          <t>9.4659999999999993</t>
-        </is>
+          <t>on-track</t>
+        </is>
+      </c>
+      <c r="C196">
+        <v>326.74</v>
+      </c>
+      <c r="D196">
+        <v>9.465999999999999</v>
       </c>
       <c r="E196" t="inlineStr">
         <is>
@@ -7024,18 +6265,14 @@
       </c>
       <c r="B197" t="inlineStr">
         <is>
-          <t>Achieved</t>
-        </is>
-      </c>
-      <c r="C197" t="inlineStr">
-        <is>
-          <t>222.38200000000001</t>
-        </is>
-      </c>
-      <c r="D197" t="inlineStr">
-        <is>
-          <t>6.024</t>
-        </is>
+          <t>on-track</t>
+        </is>
+      </c>
+      <c r="C197">
+        <v>222.382</v>
+      </c>
+      <c r="D197">
+        <v>6.024</v>
       </c>
       <c r="E197" t="inlineStr">
         <is>
@@ -7063,18 +6300,14 @@
       </c>
       <c r="B198" t="inlineStr">
         <is>
-          <t>Acceleration Needed</t>
-        </is>
-      </c>
-      <c r="C198" t="inlineStr">
-        <is>
-          <t>47249.584999999999</t>
-        </is>
-      </c>
-      <c r="D198" t="inlineStr">
-        <is>
-          <t>1713.605</t>
-        </is>
+          <t>off-track</t>
+        </is>
+      </c>
+      <c r="C198">
+        <v>47249.585</v>
+      </c>
+      <c r="D198">
+        <v>1713.605</v>
       </c>
       <c r="E198" t="inlineStr">
         <is>
@@ -7102,18 +6335,14 @@
       </c>
       <c r="B199" t="inlineStr">
         <is>
-          <t>Acceleration Needed</t>
-        </is>
-      </c>
-      <c r="C199" t="inlineStr">
-        <is>
-          <t>33696.614000000001</t>
-        </is>
-      </c>
-      <c r="D199" t="inlineStr">
-        <is>
-          <t>1008.643</t>
-        </is>
+          <t>off-track</t>
+        </is>
+      </c>
+      <c r="C199">
+        <v>33696.614</v>
+      </c>
+      <c r="D199">
+        <v>1008.643</v>
       </c>
       <c r="E199" t="inlineStr">
         <is>
@@ -7129,18 +6358,14 @@
       </c>
       <c r="B200" t="inlineStr">
         <is>
-          <t>Acceleration Needed</t>
-        </is>
-      </c>
-      <c r="C200" t="inlineStr">
-        <is>
-          <t>20017.674999999999</t>
-        </is>
-      </c>
-      <c r="D200" t="inlineStr">
-        <is>
-          <t>683.35500000000002</t>
-        </is>
+          <t>off-track</t>
+        </is>
+      </c>
+      <c r="C200">
+        <v>20017.675</v>
+      </c>
+      <c r="D200">
+        <v>683.355</v>
       </c>
       <c r="E200" t="inlineStr">
         <is>
@@ -7168,18 +6393,14 @@
       </c>
       <c r="B201" t="inlineStr">
         <is>
-          <t>Acceleration Needed</t>
-        </is>
-      </c>
-      <c r="C201" t="inlineStr">
-        <is>
-          <t>16320.537</t>
-        </is>
-      </c>
-      <c r="D201" t="inlineStr">
-        <is>
-          <t>491.19499999999999</t>
-        </is>
+          <t>off-track</t>
+        </is>
+      </c>
+      <c r="C201">
+        <v>16320.537</v>
+      </c>
+      <c r="D201">
+        <v>491.195</v>
       </c>
       <c r="E201" t="inlineStr">
         <is>
